--- a/xl/ФТИ_Стромынка 1 курс 2 сем-Д.xlsx
+++ b/xl/ФТИ_Стромынка 1 курс 2 сем-Д.xlsx
@@ -457,9 +457,6 @@
 В-421</t>
   </si>
   <si>
-    <t>9,13,17 н Стандартизация</t>
-  </si>
-  <si>
     <t>Стерлядкин В.В.</t>
   </si>
   <si>
@@ -717,10 +714,6 @@
     <t>Драгунова Е.П.</t>
   </si>
   <si>
-    <t>10 н Стандартизация
- 14 н Математический анализ</t>
-  </si>
-  <si>
     <t>лр
 лек</t>
   </si>
@@ -741,6 +734,13 @@
   </si>
   <si>
     <t xml:space="preserve"> кр. 3,9 н Технологии механических и аддитивных производств в машиностроении </t>
+  </si>
+  <si>
+    <t>9,17 н Стандартизация</t>
+  </si>
+  <si>
+    <t>10,16 н Стандартизация
+ 14 н Математический анализ</t>
   </si>
 </sst>
 </file>
@@ -3179,16 +3179,67 @@
     <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3197,14 +3248,92 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3215,146 +3344,17 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3654,10 +3654,10 @@
   <dimension ref="A1:BI94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AE4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="AY54" sqref="AY54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
@@ -3720,190 +3720,190 @@
   <sheetData>
     <row r="1" spans="1:61" ht="112.5" customHeight="1" thickBot="1">
       <c r="A1" s="13"/>
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="410" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
+      <c r="C1" s="410"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
+      <c r="N1" s="410"/>
       <c r="O1" s="184"/>
-      <c r="P1" s="398" t="s">
+      <c r="P1" s="411" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="398"/>
-      <c r="R1" s="398"/>
-      <c r="S1" s="398"/>
+      <c r="Q1" s="411"/>
+      <c r="R1" s="411"/>
+      <c r="S1" s="411"/>
       <c r="T1" s="187"/>
       <c r="U1" s="13"/>
-      <c r="V1" s="397" t="s">
+      <c r="V1" s="410" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="397"/>
-      <c r="X1" s="397"/>
-      <c r="Y1" s="397"/>
-      <c r="Z1" s="397"/>
-      <c r="AA1" s="397"/>
-      <c r="AB1" s="397"/>
-      <c r="AC1" s="397"/>
-      <c r="AD1" s="397"/>
-      <c r="AE1" s="397"/>
-      <c r="AF1" s="397"/>
-      <c r="AG1" s="397"/>
-      <c r="AH1" s="397"/>
+      <c r="W1" s="410"/>
+      <c r="X1" s="410"/>
+      <c r="Y1" s="410"/>
+      <c r="Z1" s="410"/>
+      <c r="AA1" s="410"/>
+      <c r="AB1" s="410"/>
+      <c r="AC1" s="410"/>
+      <c r="AD1" s="410"/>
+      <c r="AE1" s="410"/>
+      <c r="AF1" s="410"/>
+      <c r="AG1" s="410"/>
+      <c r="AH1" s="410"/>
       <c r="AI1" s="184"/>
-      <c r="AJ1" s="398" t="s">
+      <c r="AJ1" s="411" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" s="398"/>
-      <c r="AL1" s="398"/>
-      <c r="AM1" s="398"/>
+      <c r="AK1" s="411"/>
+      <c r="AL1" s="411"/>
+      <c r="AM1" s="411"/>
       <c r="AN1" s="187"/>
       <c r="AO1" s="13"/>
-      <c r="AP1" s="397" t="s">
+      <c r="AP1" s="410" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" s="397"/>
-      <c r="AR1" s="397"/>
-      <c r="AS1" s="397"/>
-      <c r="AT1" s="397"/>
-      <c r="AU1" s="397"/>
-      <c r="AV1" s="397"/>
-      <c r="AW1" s="397"/>
-      <c r="AX1" s="397"/>
-      <c r="AY1" s="397"/>
-      <c r="AZ1" s="397"/>
-      <c r="BA1" s="397"/>
-      <c r="BB1" s="397"/>
+      <c r="AQ1" s="410"/>
+      <c r="AR1" s="410"/>
+      <c r="AS1" s="410"/>
+      <c r="AT1" s="410"/>
+      <c r="AU1" s="410"/>
+      <c r="AV1" s="410"/>
+      <c r="AW1" s="410"/>
+      <c r="AX1" s="410"/>
+      <c r="AY1" s="410"/>
+      <c r="AZ1" s="410"/>
+      <c r="BA1" s="410"/>
+      <c r="BB1" s="410"/>
       <c r="BC1" s="184"/>
-      <c r="BD1" s="398" t="s">
+      <c r="BD1" s="411" t="s">
         <v>70</v>
       </c>
-      <c r="BE1" s="398"/>
-      <c r="BF1" s="398"/>
-      <c r="BG1" s="398"/>
+      <c r="BE1" s="411"/>
+      <c r="BF1" s="411"/>
+      <c r="BG1" s="411"/>
       <c r="BH1" s="185"/>
     </row>
     <row r="2" spans="1:61" s="3" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="412" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="401" t="s">
+      <c r="B2" s="414" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="402"/>
-      <c r="D2" s="402"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="413" t="s">
+      <c r="C2" s="415"/>
+      <c r="D2" s="415"/>
+      <c r="E2" s="416"/>
+      <c r="F2" s="417" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="414"/>
-      <c r="H2" s="415"/>
+      <c r="G2" s="418"/>
+      <c r="H2" s="419"/>
       <c r="I2" s="20">
         <v>34</v>
       </c>
       <c r="J2" s="189"/>
-      <c r="K2" s="413" t="s">
+      <c r="K2" s="417" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="414"/>
-      <c r="M2" s="415"/>
+      <c r="L2" s="418"/>
+      <c r="M2" s="419"/>
       <c r="N2" s="20">
         <v>18</v>
       </c>
       <c r="O2" s="189"/>
-      <c r="P2" s="413" t="s">
+      <c r="P2" s="417" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="414"/>
-      <c r="R2" s="415"/>
+      <c r="Q2" s="418"/>
+      <c r="R2" s="419"/>
       <c r="S2" s="20">
         <v>18</v>
       </c>
       <c r="T2" s="189"/>
-      <c r="U2" s="399" t="s">
+      <c r="U2" s="412" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="401" t="s">
+      <c r="V2" s="414" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="402"/>
-      <c r="X2" s="402"/>
-      <c r="Y2" s="403"/>
-      <c r="Z2" s="413" t="s">
+      <c r="W2" s="415"/>
+      <c r="X2" s="415"/>
+      <c r="Y2" s="416"/>
+      <c r="Z2" s="417" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="414"/>
-      <c r="AB2" s="415"/>
+      <c r="AA2" s="418"/>
+      <c r="AB2" s="419"/>
       <c r="AC2" s="24">
         <v>18</v>
       </c>
       <c r="AD2" s="189"/>
-      <c r="AE2" s="413" t="s">
+      <c r="AE2" s="417" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="414"/>
-      <c r="AG2" s="415"/>
+      <c r="AF2" s="418"/>
+      <c r="AG2" s="419"/>
       <c r="AH2" s="24">
         <v>18</v>
       </c>
       <c r="AI2" s="189"/>
-      <c r="AJ2" s="404" t="s">
+      <c r="AJ2" s="420" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="405"/>
-      <c r="AL2" s="406"/>
+      <c r="AK2" s="421"/>
+      <c r="AL2" s="422"/>
       <c r="AM2" s="20">
         <v>33</v>
       </c>
       <c r="AN2" s="189"/>
-      <c r="AO2" s="399" t="s">
+      <c r="AO2" s="412" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="401" t="s">
+      <c r="AP2" s="414" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="402"/>
-      <c r="AR2" s="402"/>
-      <c r="AS2" s="403"/>
-      <c r="AT2" s="404" t="s">
+      <c r="AQ2" s="415"/>
+      <c r="AR2" s="415"/>
+      <c r="AS2" s="416"/>
+      <c r="AT2" s="420" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="405"/>
-      <c r="AV2" s="406"/>
+      <c r="AU2" s="421"/>
+      <c r="AV2" s="422"/>
       <c r="AW2" s="14">
         <v>32</v>
       </c>
       <c r="AX2" s="189"/>
-      <c r="AY2" s="407" t="s">
+      <c r="AY2" s="429" t="s">
         <v>62</v>
       </c>
-      <c r="AZ2" s="408"/>
-      <c r="BA2" s="409"/>
+      <c r="AZ2" s="430"/>
+      <c r="BA2" s="431"/>
       <c r="BB2" s="20">
         <v>18</v>
       </c>
       <c r="BC2" s="189"/>
-      <c r="BD2" s="407" t="s">
+      <c r="BD2" s="429" t="s">
         <v>63</v>
       </c>
-      <c r="BE2" s="408"/>
-      <c r="BF2" s="409"/>
+      <c r="BE2" s="430"/>
+      <c r="BF2" s="431"/>
       <c r="BG2" s="20">
         <v>20</v>
       </c>
       <c r="BH2" s="189"/>
     </row>
     <row r="3" spans="1:61" s="2" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A3" s="400"/>
+      <c r="A3" s="413"/>
       <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="T3" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="400"/>
+      <c r="U3" s="413"/>
       <c r="V3" s="15" t="s">
         <v>13</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="AN3" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" s="400"/>
+      <c r="AO3" s="413"/>
       <c r="AP3" s="15" t="s">
         <v>13</v>
       </c>
@@ -4079,16 +4079,16 @@
       </c>
     </row>
     <row r="4" spans="1:61" ht="30" customHeight="1">
-      <c r="A4" s="410" t="s">
+      <c r="A4" s="423" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="386">
+      <c r="B4" s="388">
         <v>1</v>
       </c>
-      <c r="C4" s="382" t="s">
+      <c r="C4" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="382" t="s">
+      <c r="D4" s="390" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -4101,10 +4101,10 @@
         <v>84</v>
       </c>
       <c r="H4" s="313" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I4" s="79" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J4" s="144"/>
       <c r="K4" s="305" t="s">
@@ -4114,10 +4114,10 @@
         <v>84</v>
       </c>
       <c r="M4" s="313" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N4" s="79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O4" s="245"/>
       <c r="P4" s="305" t="s">
@@ -4127,22 +4127,22 @@
         <v>84</v>
       </c>
       <c r="R4" s="313" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S4" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T4" s="245"/>
-      <c r="U4" s="410" t="s">
+      <c r="U4" s="423" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="386">
+      <c r="V4" s="388">
         <v>1</v>
       </c>
-      <c r="W4" s="382" t="s">
+      <c r="W4" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="382" t="s">
+      <c r="X4" s="390" t="s">
         <v>27</v>
       </c>
       <c r="Y4" s="7" t="s">
@@ -4155,10 +4155,10 @@
         <v>84</v>
       </c>
       <c r="AB4" s="313" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC4" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD4" s="144"/>
       <c r="AE4" s="366" t="s">
@@ -4168,10 +4168,10 @@
         <v>84</v>
       </c>
       <c r="AG4" s="368" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH4" s="79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI4" s="144"/>
       <c r="AJ4" s="305" t="s">
@@ -4181,22 +4181,22 @@
         <v>84</v>
       </c>
       <c r="AL4" s="313" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM4" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN4" s="144"/>
-      <c r="AO4" s="410" t="s">
+      <c r="AO4" s="423" t="s">
         <v>17</v>
       </c>
-      <c r="AP4" s="386">
+      <c r="AP4" s="388">
         <v>1</v>
       </c>
-      <c r="AQ4" s="382" t="s">
+      <c r="AQ4" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="AR4" s="382" t="s">
+      <c r="AR4" s="390" t="s">
         <v>27</v>
       </c>
       <c r="AS4" s="7" t="s">
@@ -4209,10 +4209,10 @@
         <v>84</v>
       </c>
       <c r="AV4" s="313" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW4" s="79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AX4" s="144"/>
       <c r="AY4" s="305" t="s">
@@ -4222,10 +4222,10 @@
         <v>84</v>
       </c>
       <c r="BA4" s="307" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB4" s="79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BC4" s="144"/>
       <c r="BD4" s="305" t="s">
@@ -4235,19 +4235,19 @@
         <v>84</v>
       </c>
       <c r="BF4" s="313" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BG4" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BH4" s="144"/>
       <c r="BI4" s="40"/>
     </row>
     <row r="5" spans="1:61" ht="30" customHeight="1">
-      <c r="A5" s="411"/>
-      <c r="B5" s="375"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
+      <c r="A5" s="424"/>
+      <c r="B5" s="389"/>
+      <c r="C5" s="391"/>
+      <c r="D5" s="391"/>
       <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>87</v>
       </c>
       <c r="I5" s="284" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J5" s="191"/>
       <c r="K5" s="289" t="s">
@@ -4278,10 +4278,10 @@
       <c r="R5" s="339"/>
       <c r="S5" s="292"/>
       <c r="T5" s="255"/>
-      <c r="U5" s="411"/>
-      <c r="V5" s="375"/>
-      <c r="W5" s="377"/>
-      <c r="X5" s="377"/>
+      <c r="U5" s="424"/>
+      <c r="V5" s="389"/>
+      <c r="W5" s="391"/>
+      <c r="X5" s="391"/>
       <c r="Y5" s="8" t="s">
         <v>2</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>102</v>
       </c>
       <c r="AC5" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD5" s="191"/>
       <c r="AE5" s="342" t="s">
@@ -4308,7 +4308,7 @@
         <v>110</v>
       </c>
       <c r="AH5" s="143" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI5" s="191"/>
       <c r="AJ5" s="288" t="s">
@@ -4321,13 +4321,13 @@
         <v>87</v>
       </c>
       <c r="AM5" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN5" s="191"/>
-      <c r="AO5" s="411"/>
-      <c r="AP5" s="375"/>
-      <c r="AQ5" s="377"/>
-      <c r="AR5" s="377"/>
+      <c r="AO5" s="424"/>
+      <c r="AP5" s="389"/>
+      <c r="AQ5" s="391"/>
+      <c r="AR5" s="391"/>
       <c r="AS5" s="8" t="s">
         <v>2</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>87</v>
       </c>
       <c r="AW5" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX5" s="191"/>
       <c r="AY5" s="288" t="s">
@@ -4354,7 +4354,7 @@
         <v>87</v>
       </c>
       <c r="BB5" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BC5" s="191"/>
       <c r="BD5" s="288" t="s">
@@ -4367,20 +4367,20 @@
         <v>87</v>
       </c>
       <c r="BG5" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH5" s="191"/>
       <c r="BI5" s="40"/>
     </row>
     <row r="6" spans="1:61" ht="30" customHeight="1">
-      <c r="A6" s="411"/>
-      <c r="B6" s="374">
+      <c r="A6" s="424"/>
+      <c r="B6" s="392">
         <v>2</v>
       </c>
-      <c r="C6" s="376" t="s">
+      <c r="C6" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="376" t="s">
+      <c r="D6" s="393" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -4393,10 +4393,10 @@
         <v>84</v>
       </c>
       <c r="H6" s="313" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I6" s="79" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J6" s="144"/>
       <c r="K6" s="305" t="s">
@@ -4406,10 +4406,10 @@
         <v>84</v>
       </c>
       <c r="M6" s="313" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N6" s="79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O6" s="245"/>
       <c r="P6" s="305" t="s">
@@ -4419,20 +4419,20 @@
         <v>84</v>
       </c>
       <c r="R6" s="313" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S6" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T6" s="245"/>
-      <c r="U6" s="411"/>
-      <c r="V6" s="374">
+      <c r="U6" s="424"/>
+      <c r="V6" s="392">
         <v>2</v>
       </c>
-      <c r="W6" s="376" t="s">
+      <c r="W6" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="376" t="s">
+      <c r="X6" s="393" t="s">
         <v>29</v>
       </c>
       <c r="Y6" s="9" t="s">
@@ -4445,10 +4445,10 @@
         <v>84</v>
       </c>
       <c r="AB6" s="313" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC6" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD6" s="144"/>
       <c r="AE6" s="366" t="s">
@@ -4458,10 +4458,10 @@
         <v>84</v>
       </c>
       <c r="AG6" s="368" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH6" s="79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI6" s="144"/>
       <c r="AJ6" s="305" t="s">
@@ -4471,20 +4471,20 @@
         <v>84</v>
       </c>
       <c r="AL6" s="313" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM6" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN6" s="144"/>
-      <c r="AO6" s="411"/>
-      <c r="AP6" s="374">
+      <c r="AO6" s="424"/>
+      <c r="AP6" s="392">
         <v>2</v>
       </c>
-      <c r="AQ6" s="376" t="s">
+      <c r="AQ6" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="AR6" s="376" t="s">
+      <c r="AR6" s="393" t="s">
         <v>29</v>
       </c>
       <c r="AS6" s="9" t="s">
@@ -4497,10 +4497,10 @@
         <v>84</v>
       </c>
       <c r="AV6" s="313" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW6" s="79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AX6" s="144"/>
       <c r="AY6" s="305" t="s">
@@ -4510,10 +4510,10 @@
         <v>84</v>
       </c>
       <c r="BA6" s="307" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB6" s="79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BC6" s="144"/>
       <c r="BD6" s="305" t="s">
@@ -4523,19 +4523,19 @@
         <v>84</v>
       </c>
       <c r="BF6" s="313" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BG6" s="79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BH6" s="144"/>
       <c r="BI6" s="40"/>
     </row>
     <row r="7" spans="1:61" ht="30" customHeight="1">
-      <c r="A7" s="411"/>
-      <c r="B7" s="375"/>
-      <c r="C7" s="377"/>
-      <c r="D7" s="377"/>
+      <c r="A7" s="424"/>
+      <c r="B7" s="389"/>
+      <c r="C7" s="391"/>
+      <c r="D7" s="391"/>
       <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>87</v>
       </c>
       <c r="I7" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J7" s="191"/>
       <c r="K7" s="289" t="s">
@@ -4566,10 +4566,10 @@
       <c r="R7" s="339"/>
       <c r="S7" s="292"/>
       <c r="T7" s="255"/>
-      <c r="U7" s="411"/>
-      <c r="V7" s="375"/>
-      <c r="W7" s="377"/>
-      <c r="X7" s="377"/>
+      <c r="U7" s="424"/>
+      <c r="V7" s="389"/>
+      <c r="W7" s="391"/>
+      <c r="X7" s="391"/>
       <c r="Y7" s="9" t="s">
         <v>2</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>102</v>
       </c>
       <c r="AC7" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD7" s="191"/>
       <c r="AE7" s="342" t="s">
@@ -4596,7 +4596,7 @@
         <v>110</v>
       </c>
       <c r="AH7" s="143" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI7" s="191"/>
       <c r="AJ7" s="288" t="s">
@@ -4609,13 +4609,13 @@
         <v>87</v>
       </c>
       <c r="AM7" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN7" s="191"/>
-      <c r="AO7" s="411"/>
-      <c r="AP7" s="375"/>
-      <c r="AQ7" s="377"/>
-      <c r="AR7" s="377"/>
+      <c r="AO7" s="424"/>
+      <c r="AP7" s="389"/>
+      <c r="AQ7" s="391"/>
+      <c r="AR7" s="391"/>
       <c r="AS7" s="9" t="s">
         <v>2</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>87</v>
       </c>
       <c r="AW7" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX7" s="191"/>
       <c r="AY7" s="288" t="s">
@@ -4642,7 +4642,7 @@
         <v>87</v>
       </c>
       <c r="BB7" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BC7" s="191"/>
       <c r="BD7" s="288" t="s">
@@ -4655,72 +4655,72 @@
         <v>87</v>
       </c>
       <c r="BG7" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH7" s="191"/>
       <c r="BI7" s="40"/>
     </row>
     <row r="8" spans="1:61" ht="30" customHeight="1">
-      <c r="A8" s="411"/>
-      <c r="B8" s="374">
+      <c r="A8" s="424"/>
+      <c r="B8" s="392">
         <v>3</v>
       </c>
-      <c r="C8" s="376" t="s">
+      <c r="C8" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="376" t="s">
+      <c r="D8" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="305" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="306" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="307" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I8" s="291" t="s">
         <v>77</v>
       </c>
       <c r="J8" s="144"/>
       <c r="K8" s="305" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L8" s="306" t="s">
         <v>49</v>
       </c>
       <c r="M8" s="307" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N8" s="291" t="s">
         <v>73</v>
       </c>
       <c r="O8" s="245"/>
       <c r="P8" s="305" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="306" t="s">
         <v>49</v>
       </c>
       <c r="R8" s="307" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S8" s="291" t="s">
         <v>74</v>
       </c>
       <c r="T8" s="245"/>
-      <c r="U8" s="411"/>
-      <c r="V8" s="374">
+      <c r="U8" s="424"/>
+      <c r="V8" s="392">
         <v>3</v>
       </c>
-      <c r="W8" s="376" t="s">
+      <c r="W8" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="376" t="s">
+      <c r="X8" s="393" t="s">
         <v>57</v>
       </c>
       <c r="Y8" s="9" t="s">
@@ -4733,59 +4733,59 @@
         <v>49</v>
       </c>
       <c r="AB8" s="307" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC8" s="291" t="s">
         <v>76</v>
       </c>
       <c r="AD8" s="255"/>
       <c r="AE8" s="177" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF8" s="178" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG8" s="179" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH8" s="344" t="s">
         <v>188</v>
-      </c>
-      <c r="AF8" s="178" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG8" s="179" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH8" s="344" t="s">
-        <v>189</v>
       </c>
       <c r="AI8" s="255"/>
       <c r="AJ8" s="305" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK8" s="306" t="s">
         <v>49</v>
       </c>
       <c r="AL8" s="307" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM8" s="291" t="s">
         <v>75</v>
       </c>
       <c r="AN8" s="144"/>
-      <c r="AO8" s="411"/>
-      <c r="AP8" s="374">
+      <c r="AO8" s="424"/>
+      <c r="AP8" s="392">
         <v>3</v>
       </c>
-      <c r="AQ8" s="376" t="s">
+      <c r="AQ8" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="AR8" s="376" t="s">
+      <c r="AR8" s="393" t="s">
         <v>57</v>
       </c>
       <c r="AS8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AT8" s="305" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AU8" s="306" t="s">
         <v>49</v>
       </c>
       <c r="AV8" s="307" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW8" s="291" t="s">
         <v>78</v>
@@ -4798,14 +4798,14 @@
         <v>49</v>
       </c>
       <c r="BA8" s="307" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB8" s="291" t="s">
         <v>77</v>
       </c>
       <c r="BC8" s="255"/>
       <c r="BD8" s="305" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BE8" s="306" t="s">
         <v>49</v>
@@ -4814,16 +4814,16 @@
         <v>72</v>
       </c>
       <c r="BG8" s="79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BH8" s="144"/>
       <c r="BI8" s="40"/>
     </row>
     <row r="9" spans="1:61" ht="30" customHeight="1">
-      <c r="A9" s="411"/>
-      <c r="B9" s="378"/>
-      <c r="C9" s="380"/>
-      <c r="D9" s="380"/>
+      <c r="A9" s="424"/>
+      <c r="B9" s="395"/>
+      <c r="C9" s="394"/>
+      <c r="D9" s="394"/>
       <c r="E9" s="9" t="s">
         <v>2</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>95</v>
       </c>
       <c r="I9" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J9" s="174"/>
       <c r="K9" s="289" t="s">
@@ -4854,10 +4854,10 @@
       <c r="R9" s="339"/>
       <c r="S9" s="292"/>
       <c r="T9" s="250"/>
-      <c r="U9" s="411"/>
-      <c r="V9" s="378"/>
-      <c r="W9" s="380"/>
-      <c r="X9" s="380"/>
+      <c r="U9" s="424"/>
+      <c r="V9" s="395"/>
+      <c r="W9" s="394"/>
+      <c r="X9" s="394"/>
       <c r="Y9" s="9" t="s">
         <v>2</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>110</v>
       </c>
       <c r="AC9" s="155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD9" s="174"/>
       <c r="AE9" s="289" t="s">
@@ -4884,7 +4884,7 @@
         <v>102</v>
       </c>
       <c r="AH9" s="155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI9" s="174"/>
       <c r="AJ9" s="81"/>
@@ -4892,10 +4892,10 @@
       <c r="AL9" s="273"/>
       <c r="AM9" s="80"/>
       <c r="AN9" s="174"/>
-      <c r="AO9" s="411"/>
-      <c r="AP9" s="378"/>
-      <c r="AQ9" s="380"/>
-      <c r="AR9" s="380"/>
+      <c r="AO9" s="424"/>
+      <c r="AP9" s="395"/>
+      <c r="AQ9" s="394"/>
+      <c r="AR9" s="394"/>
       <c r="AS9" s="9" t="s">
         <v>2</v>
       </c>
@@ -4917,14 +4917,14 @@
       <c r="BI9" s="40"/>
     </row>
     <row r="10" spans="1:61" ht="30" customHeight="1">
-      <c r="A10" s="411"/>
-      <c r="B10" s="374">
+      <c r="A10" s="424"/>
+      <c r="B10" s="392">
         <v>4</v>
       </c>
-      <c r="C10" s="376" t="s">
+      <c r="C10" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="376" t="s">
+      <c r="D10" s="393" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -4945,14 +4945,14 @@
       <c r="R10" s="228"/>
       <c r="S10" s="225"/>
       <c r="T10" s="256"/>
-      <c r="U10" s="411"/>
-      <c r="V10" s="374">
+      <c r="U10" s="424"/>
+      <c r="V10" s="392">
         <v>4</v>
       </c>
-      <c r="W10" s="376" t="s">
+      <c r="W10" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="X10" s="376" t="s">
+      <c r="X10" s="393" t="s">
         <v>59</v>
       </c>
       <c r="Y10" s="9" t="s">
@@ -4977,14 +4977,14 @@
         <v>50</v>
       </c>
       <c r="AN10" s="192"/>
-      <c r="AO10" s="411"/>
-      <c r="AP10" s="374">
+      <c r="AO10" s="424"/>
+      <c r="AP10" s="392">
         <v>4</v>
       </c>
-      <c r="AQ10" s="376" t="s">
+      <c r="AQ10" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="AR10" s="376" t="s">
+      <c r="AR10" s="393" t="s">
         <v>59</v>
       </c>
       <c r="AS10" s="9" t="s">
@@ -4996,7 +4996,7 @@
       <c r="AW10" s="80"/>
       <c r="AX10" s="192"/>
       <c r="AY10" s="318" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="AZ10" s="178" t="s">
         <v>53</v>
@@ -5016,10 +5016,10 @@
       <c r="BI10" s="40"/>
     </row>
     <row r="11" spans="1:61" ht="30" customHeight="1">
-      <c r="A11" s="411"/>
-      <c r="B11" s="375"/>
-      <c r="C11" s="377"/>
-      <c r="D11" s="377"/>
+      <c r="A11" s="424"/>
+      <c r="B11" s="389"/>
+      <c r="C11" s="391"/>
+      <c r="D11" s="391"/>
       <c r="E11" s="42" t="s">
         <v>2</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>95</v>
       </c>
       <c r="I11" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J11" s="174"/>
       <c r="K11" s="248"/>
@@ -5046,10 +5046,10 @@
       <c r="R11" s="254"/>
       <c r="S11" s="246"/>
       <c r="T11" s="250"/>
-      <c r="U11" s="411"/>
-      <c r="V11" s="375"/>
-      <c r="W11" s="377"/>
-      <c r="X11" s="377"/>
+      <c r="U11" s="424"/>
+      <c r="V11" s="389"/>
+      <c r="W11" s="391"/>
+      <c r="X11" s="391"/>
       <c r="Y11" s="42" t="s">
         <v>2</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>110</v>
       </c>
       <c r="AC11" s="155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD11" s="174"/>
       <c r="AE11" s="289" t="s">
@@ -5076,7 +5076,7 @@
         <v>102</v>
       </c>
       <c r="AH11" s="155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI11" s="174"/>
       <c r="AJ11" s="81"/>
@@ -5084,10 +5084,10 @@
       <c r="AL11" s="273"/>
       <c r="AM11" s="80"/>
       <c r="AN11" s="174"/>
-      <c r="AO11" s="411"/>
-      <c r="AP11" s="375"/>
-      <c r="AQ11" s="377"/>
-      <c r="AR11" s="377"/>
+      <c r="AO11" s="424"/>
+      <c r="AP11" s="389"/>
+      <c r="AQ11" s="391"/>
+      <c r="AR11" s="391"/>
       <c r="AS11" s="42" t="s">
         <v>2</v>
       </c>
@@ -5109,14 +5109,14 @@
       <c r="BI11" s="40"/>
     </row>
     <row r="12" spans="1:61" ht="30" customHeight="1">
-      <c r="A12" s="411"/>
-      <c r="B12" s="374">
+      <c r="A12" s="424"/>
+      <c r="B12" s="392">
         <v>5</v>
       </c>
-      <c r="C12" s="376" t="s">
+      <c r="C12" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="376" t="s">
+      <c r="D12" s="393" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -5137,14 +5137,14 @@
       <c r="R12" s="237"/>
       <c r="S12" s="225"/>
       <c r="T12" s="245"/>
-      <c r="U12" s="411"/>
-      <c r="V12" s="374">
+      <c r="U12" s="424"/>
+      <c r="V12" s="392">
         <v>5</v>
       </c>
-      <c r="W12" s="376" t="s">
+      <c r="W12" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="376" t="s">
+      <c r="X12" s="393" t="s">
         <v>60</v>
       </c>
       <c r="Y12" s="9" t="s">
@@ -5169,14 +5169,14 @@
         <v>50</v>
       </c>
       <c r="AN12" s="144"/>
-      <c r="AO12" s="411"/>
-      <c r="AP12" s="374">
+      <c r="AO12" s="424"/>
+      <c r="AP12" s="392">
         <v>5</v>
       </c>
-      <c r="AQ12" s="376" t="s">
+      <c r="AQ12" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="AR12" s="376" t="s">
+      <c r="AR12" s="393" t="s">
         <v>60</v>
       </c>
       <c r="AS12" s="9" t="s">
@@ -5188,7 +5188,7 @@
       <c r="AW12" s="80"/>
       <c r="AX12" s="144"/>
       <c r="AY12" s="318" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="AZ12" s="178" t="s">
         <v>53</v>
@@ -5208,10 +5208,10 @@
       <c r="BI12" s="40"/>
     </row>
     <row r="13" spans="1:61" ht="30" customHeight="1">
-      <c r="A13" s="411"/>
-      <c r="B13" s="375"/>
-      <c r="C13" s="377"/>
-      <c r="D13" s="377"/>
+      <c r="A13" s="424"/>
+      <c r="B13" s="389"/>
+      <c r="C13" s="391"/>
+      <c r="D13" s="391"/>
       <c r="E13" s="9" t="s">
         <v>2</v>
       </c>
@@ -5230,10 +5230,10 @@
       <c r="R13" s="237"/>
       <c r="S13" s="232"/>
       <c r="T13" s="257"/>
-      <c r="U13" s="411"/>
-      <c r="V13" s="375"/>
-      <c r="W13" s="377"/>
-      <c r="X13" s="377"/>
+      <c r="U13" s="424"/>
+      <c r="V13" s="389"/>
+      <c r="W13" s="391"/>
+      <c r="X13" s="391"/>
       <c r="Y13" s="9" t="s">
         <v>2</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>109</v>
       </c>
       <c r="AC13" s="155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD13" s="193"/>
       <c r="AE13" s="289" t="s">
@@ -5260,7 +5260,7 @@
         <v>102</v>
       </c>
       <c r="AH13" s="155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI13" s="193"/>
       <c r="AJ13" s="289"/>
@@ -5268,10 +5268,10 @@
       <c r="AL13" s="273"/>
       <c r="AM13" s="80"/>
       <c r="AN13" s="193"/>
-      <c r="AO13" s="411"/>
-      <c r="AP13" s="375"/>
-      <c r="AQ13" s="377"/>
-      <c r="AR13" s="377"/>
+      <c r="AO13" s="424"/>
+      <c r="AP13" s="389"/>
+      <c r="AQ13" s="391"/>
+      <c r="AR13" s="391"/>
       <c r="AS13" s="9" t="s">
         <v>2</v>
       </c>
@@ -5293,14 +5293,14 @@
       <c r="BI13" s="40"/>
     </row>
     <row r="14" spans="1:61" ht="30" customHeight="1">
-      <c r="A14" s="411"/>
-      <c r="B14" s="378">
+      <c r="A14" s="424"/>
+      <c r="B14" s="395">
         <v>6</v>
       </c>
-      <c r="C14" s="380" t="s">
+      <c r="C14" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="380" t="s">
+      <c r="D14" s="394" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -5321,14 +5321,14 @@
       <c r="R14" s="237"/>
       <c r="S14" s="225"/>
       <c r="T14" s="245"/>
-      <c r="U14" s="411"/>
-      <c r="V14" s="378">
+      <c r="U14" s="424"/>
+      <c r="V14" s="395">
         <v>6</v>
       </c>
-      <c r="W14" s="380" t="s">
+      <c r="W14" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="X14" s="380" t="s">
+      <c r="X14" s="394" t="s">
         <v>61</v>
       </c>
       <c r="Y14" s="9" t="s">
@@ -5353,14 +5353,14 @@
         <v>50</v>
       </c>
       <c r="AN14" s="144"/>
-      <c r="AO14" s="411"/>
-      <c r="AP14" s="378">
+      <c r="AO14" s="424"/>
+      <c r="AP14" s="395">
         <v>6</v>
       </c>
-      <c r="AQ14" s="380" t="s">
+      <c r="AQ14" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="AR14" s="380" t="s">
+      <c r="AR14" s="394" t="s">
         <v>61</v>
       </c>
       <c r="AS14" s="9" t="s">
@@ -5384,10 +5384,10 @@
       <c r="BI14" s="40"/>
     </row>
     <row r="15" spans="1:61" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="412"/>
-      <c r="B15" s="379"/>
-      <c r="C15" s="381"/>
-      <c r="D15" s="381"/>
+      <c r="A15" s="425"/>
+      <c r="B15" s="396"/>
+      <c r="C15" s="397"/>
+      <c r="D15" s="397"/>
       <c r="E15" s="4" t="s">
         <v>2</v>
       </c>
@@ -5406,10 +5406,10 @@
       <c r="R15" s="214"/>
       <c r="S15" s="239"/>
       <c r="T15" s="247"/>
-      <c r="U15" s="412"/>
-      <c r="V15" s="379"/>
-      <c r="W15" s="381"/>
-      <c r="X15" s="381"/>
+      <c r="U15" s="425"/>
+      <c r="V15" s="396"/>
+      <c r="W15" s="397"/>
+      <c r="X15" s="397"/>
       <c r="Y15" s="4" t="s">
         <v>2</v>
       </c>
@@ -5428,10 +5428,10 @@
       <c r="AL15" s="107"/>
       <c r="AM15" s="239"/>
       <c r="AN15" s="157"/>
-      <c r="AO15" s="412"/>
-      <c r="AP15" s="379"/>
-      <c r="AQ15" s="381"/>
-      <c r="AR15" s="381"/>
+      <c r="AO15" s="425"/>
+      <c r="AP15" s="396"/>
+      <c r="AQ15" s="397"/>
+      <c r="AR15" s="397"/>
       <c r="AS15" s="4" t="s">
         <v>2</v>
       </c>
@@ -5453,23 +5453,23 @@
       <c r="BI15" s="40"/>
     </row>
     <row r="16" spans="1:61" ht="30" customHeight="1">
-      <c r="A16" s="394" t="s">
+      <c r="A16" s="407" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="378">
+      <c r="B16" s="395">
         <v>1</v>
       </c>
-      <c r="C16" s="382" t="s">
+      <c r="C16" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="382" t="s">
+      <c r="D16" s="390" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="330" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G16" s="327" t="s">
         <v>49</v>
@@ -5496,19 +5496,19 @@
         <v>102</v>
       </c>
       <c r="S16" s="292" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T16" s="258"/>
-      <c r="U16" s="394" t="s">
+      <c r="U16" s="407" t="s">
         <v>0</v>
       </c>
-      <c r="V16" s="378">
+      <c r="V16" s="395">
         <v>1</v>
       </c>
-      <c r="W16" s="382" t="s">
+      <c r="W16" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="X16" s="382" t="s">
+      <c r="X16" s="390" t="s">
         <v>27</v>
       </c>
       <c r="Y16" s="41" t="s">
@@ -5529,23 +5529,23 @@
       <c r="AL16" s="82"/>
       <c r="AM16" s="230"/>
       <c r="AN16" s="194"/>
-      <c r="AO16" s="394" t="s">
+      <c r="AO16" s="407" t="s">
         <v>0</v>
       </c>
-      <c r="AP16" s="386">
+      <c r="AP16" s="388">
         <v>1</v>
       </c>
-      <c r="AQ16" s="382" t="s">
+      <c r="AQ16" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="AR16" s="382" t="s">
+      <c r="AR16" s="390" t="s">
         <v>27</v>
       </c>
       <c r="AS16" s="48" t="s">
         <v>1</v>
       </c>
       <c r="AT16" s="139" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AU16" s="290" t="s">
         <v>53</v>
@@ -5570,10 +5570,10 @@
       <c r="BI16" s="40"/>
     </row>
     <row r="17" spans="1:61" ht="32.25" customHeight="1">
-      <c r="A17" s="395"/>
-      <c r="B17" s="375"/>
-      <c r="C17" s="377"/>
-      <c r="D17" s="377"/>
+      <c r="A17" s="408"/>
+      <c r="B17" s="389"/>
+      <c r="C17" s="391"/>
+      <c r="D17" s="391"/>
       <c r="E17" s="39" t="s">
         <v>2</v>
       </c>
@@ -5600,10 +5600,10 @@
       <c r="R17" s="280"/>
       <c r="S17" s="292"/>
       <c r="T17" s="258"/>
-      <c r="U17" s="395"/>
-      <c r="V17" s="375"/>
-      <c r="W17" s="377"/>
-      <c r="X17" s="377"/>
+      <c r="U17" s="408"/>
+      <c r="V17" s="389"/>
+      <c r="W17" s="391"/>
+      <c r="X17" s="391"/>
       <c r="Y17" s="39" t="s">
         <v>2</v>
       </c>
@@ -5630,10 +5630,10 @@
         <v>275</v>
       </c>
       <c r="AN17" s="194"/>
-      <c r="AO17" s="395"/>
-      <c r="AP17" s="375"/>
-      <c r="AQ17" s="377"/>
-      <c r="AR17" s="377"/>
+      <c r="AO17" s="408"/>
+      <c r="AP17" s="389"/>
+      <c r="AQ17" s="391"/>
+      <c r="AR17" s="391"/>
       <c r="AS17" s="39" t="s">
         <v>2</v>
       </c>
@@ -5655,14 +5655,14 @@
       <c r="BI17" s="40"/>
     </row>
     <row r="18" spans="1:61" ht="30" customHeight="1">
-      <c r="A18" s="395"/>
-      <c r="B18" s="374">
+      <c r="A18" s="408"/>
+      <c r="B18" s="392">
         <v>2</v>
       </c>
-      <c r="C18" s="376" t="s">
+      <c r="C18" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="376" t="s">
+      <c r="D18" s="393" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="171" t="s">
@@ -5696,17 +5696,17 @@
         <v>102</v>
       </c>
       <c r="S18" s="292" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T18" s="258"/>
-      <c r="U18" s="395"/>
-      <c r="V18" s="374">
+      <c r="U18" s="408"/>
+      <c r="V18" s="392">
         <v>2</v>
       </c>
-      <c r="W18" s="376" t="s">
+      <c r="W18" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="X18" s="376" t="s">
+      <c r="X18" s="393" t="s">
         <v>29</v>
       </c>
       <c r="Y18" s="9" t="s">
@@ -5722,7 +5722,7 @@
         <v>104</v>
       </c>
       <c r="AC18" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD18" s="275"/>
       <c r="AE18" s="289" t="s">
@@ -5735,7 +5735,7 @@
         <v>104</v>
       </c>
       <c r="AH18" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI18" s="275"/>
       <c r="AJ18" s="288"/>
@@ -5743,21 +5743,21 @@
       <c r="AL18" s="273"/>
       <c r="AM18" s="336"/>
       <c r="AN18" s="194"/>
-      <c r="AO18" s="395"/>
-      <c r="AP18" s="374">
+      <c r="AO18" s="408"/>
+      <c r="AP18" s="392">
         <v>2</v>
       </c>
-      <c r="AQ18" s="376" t="s">
+      <c r="AQ18" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="AR18" s="376" t="s">
+      <c r="AR18" s="393" t="s">
         <v>29</v>
       </c>
       <c r="AS18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AT18" s="139" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AU18" s="290" t="s">
         <v>53</v>
@@ -5782,10 +5782,10 @@
       <c r="BI18" s="40"/>
     </row>
     <row r="19" spans="1:61" ht="30" customHeight="1">
-      <c r="A19" s="395"/>
-      <c r="B19" s="375"/>
-      <c r="C19" s="377"/>
-      <c r="D19" s="377"/>
+      <c r="A19" s="408"/>
+      <c r="B19" s="389"/>
+      <c r="C19" s="391"/>
+      <c r="D19" s="391"/>
       <c r="E19" s="171" t="s">
         <v>2</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>102</v>
       </c>
       <c r="N19" s="292" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O19" s="275"/>
       <c r="P19" s="342"/>
@@ -5820,10 +5820,10 @@
       <c r="R19" s="280"/>
       <c r="S19" s="292"/>
       <c r="T19" s="258"/>
-      <c r="U19" s="395"/>
-      <c r="V19" s="375"/>
-      <c r="W19" s="377"/>
-      <c r="X19" s="377"/>
+      <c r="U19" s="408"/>
+      <c r="V19" s="389"/>
+      <c r="W19" s="391"/>
+      <c r="X19" s="391"/>
       <c r="Y19" s="9" t="s">
         <v>2</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>104</v>
       </c>
       <c r="AC19" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD19" s="275"/>
       <c r="AE19" s="289" t="s">
@@ -5850,7 +5850,7 @@
         <v>104</v>
       </c>
       <c r="AH19" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI19" s="275"/>
       <c r="AJ19" s="342" t="s">
@@ -5866,15 +5866,15 @@
         <v>275</v>
       </c>
       <c r="AN19" s="194"/>
-      <c r="AO19" s="395"/>
-      <c r="AP19" s="375"/>
-      <c r="AQ19" s="377"/>
-      <c r="AR19" s="377"/>
+      <c r="AO19" s="408"/>
+      <c r="AP19" s="389"/>
+      <c r="AQ19" s="391"/>
+      <c r="AR19" s="391"/>
       <c r="AS19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="AT19" s="369" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU19" s="290" t="s">
         <v>49</v>
@@ -5899,21 +5899,21 @@
       <c r="BI19" s="40"/>
     </row>
     <row r="20" spans="1:61" ht="30" customHeight="1">
-      <c r="A20" s="395"/>
-      <c r="B20" s="374">
+      <c r="A20" s="408"/>
+      <c r="B20" s="392">
         <v>3</v>
       </c>
-      <c r="C20" s="376" t="s">
+      <c r="C20" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="376" t="s">
+      <c r="D20" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="171" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="342" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" s="66" t="s">
         <v>51</v>
@@ -5922,7 +5922,7 @@
         <v>93</v>
       </c>
       <c r="I20" s="336" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J20" s="194"/>
       <c r="K20" s="289" t="s">
@@ -5935,7 +5935,7 @@
         <v>106</v>
       </c>
       <c r="N20" s="292" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O20" s="275"/>
       <c r="P20" s="342" t="s">
@@ -5948,17 +5948,17 @@
         <v>102</v>
       </c>
       <c r="S20" s="292" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T20" s="258"/>
-      <c r="U20" s="395"/>
-      <c r="V20" s="374">
+      <c r="U20" s="408"/>
+      <c r="V20" s="392">
         <v>3</v>
       </c>
-      <c r="W20" s="376" t="s">
+      <c r="W20" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="X20" s="376" t="s">
+      <c r="X20" s="393" t="s">
         <v>57</v>
       </c>
       <c r="Y20" s="9" t="s">
@@ -5974,7 +5974,7 @@
         <v>104</v>
       </c>
       <c r="AC20" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD20" s="275"/>
       <c r="AE20" s="289" t="s">
@@ -5987,7 +5987,7 @@
         <v>104</v>
       </c>
       <c r="AH20" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI20" s="275"/>
       <c r="AJ20" s="342" t="s">
@@ -6001,21 +6001,21 @@
         <v>91</v>
       </c>
       <c r="AN20" s="194"/>
-      <c r="AO20" s="395"/>
-      <c r="AP20" s="374">
+      <c r="AO20" s="408"/>
+      <c r="AP20" s="392">
         <v>3</v>
       </c>
-      <c r="AQ20" s="376" t="s">
+      <c r="AQ20" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="AR20" s="376" t="s">
+      <c r="AR20" s="393" t="s">
         <v>57</v>
       </c>
       <c r="AS20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AT20" s="369" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AU20" s="290" t="s">
         <v>49</v>
@@ -6056,10 +6056,10 @@
       <c r="BI20" s="40"/>
     </row>
     <row r="21" spans="1:61" ht="30" customHeight="1">
-      <c r="A21" s="395"/>
-      <c r="B21" s="375"/>
-      <c r="C21" s="380"/>
-      <c r="D21" s="380"/>
+      <c r="A21" s="408"/>
+      <c r="B21" s="389"/>
+      <c r="C21" s="394"/>
+      <c r="D21" s="394"/>
       <c r="E21" s="171" t="s">
         <v>2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>93</v>
       </c>
       <c r="I21" s="336" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J21" s="194"/>
       <c r="K21" s="342" t="s">
@@ -6086,7 +6086,7 @@
         <v>102</v>
       </c>
       <c r="N21" s="292" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O21" s="275"/>
       <c r="P21" s="342"/>
@@ -6094,10 +6094,10 @@
       <c r="R21" s="280"/>
       <c r="S21" s="292"/>
       <c r="T21" s="258"/>
-      <c r="U21" s="395"/>
-      <c r="V21" s="375"/>
-      <c r="W21" s="380"/>
-      <c r="X21" s="380"/>
+      <c r="U21" s="408"/>
+      <c r="V21" s="389"/>
+      <c r="W21" s="394"/>
+      <c r="X21" s="394"/>
       <c r="Y21" s="9" t="s">
         <v>2</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>104</v>
       </c>
       <c r="AC21" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD21" s="275"/>
       <c r="AE21" s="289" t="s">
@@ -6124,7 +6124,7 @@
         <v>104</v>
       </c>
       <c r="AH21" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI21" s="275"/>
       <c r="AJ21" s="342" t="s">
@@ -6138,10 +6138,10 @@
         <v>91</v>
       </c>
       <c r="AN21" s="194"/>
-      <c r="AO21" s="395"/>
-      <c r="AP21" s="375"/>
-      <c r="AQ21" s="380"/>
-      <c r="AR21" s="380"/>
+      <c r="AO21" s="408"/>
+      <c r="AP21" s="389"/>
+      <c r="AQ21" s="394"/>
+      <c r="AR21" s="394"/>
       <c r="AS21" s="9" t="s">
         <v>2</v>
       </c>
@@ -6171,21 +6171,21 @@
       <c r="BI21" s="40"/>
     </row>
     <row r="22" spans="1:61" ht="30" customHeight="1">
-      <c r="A22" s="395"/>
-      <c r="B22" s="374">
+      <c r="A22" s="408"/>
+      <c r="B22" s="392">
         <v>4</v>
       </c>
-      <c r="C22" s="376" t="s">
+      <c r="C22" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="376" t="s">
+      <c r="D22" s="393" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="342" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="66" t="s">
         <v>49</v>
@@ -6194,7 +6194,7 @@
         <v>93</v>
       </c>
       <c r="I22" s="336" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J22" s="194"/>
       <c r="K22" s="289" t="s">
@@ -6207,7 +6207,7 @@
         <v>104</v>
       </c>
       <c r="N22" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O22" s="275"/>
       <c r="P22" s="289" t="s">
@@ -6220,17 +6220,17 @@
         <v>104</v>
       </c>
       <c r="S22" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T22" s="258"/>
-      <c r="U22" s="395"/>
-      <c r="V22" s="374">
+      <c r="U22" s="408"/>
+      <c r="V22" s="392">
         <v>4</v>
       </c>
-      <c r="W22" s="376" t="s">
+      <c r="W22" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="X22" s="376" t="s">
+      <c r="X22" s="393" t="s">
         <v>59</v>
       </c>
       <c r="Y22" s="9" t="s">
@@ -6246,7 +6246,7 @@
         <v>102</v>
       </c>
       <c r="AC22" s="155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD22" s="275"/>
       <c r="AE22" s="289" t="s">
@@ -6259,7 +6259,7 @@
         <v>102</v>
       </c>
       <c r="AH22" s="155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI22" s="275"/>
       <c r="AJ22" s="289" t="s">
@@ -6273,14 +6273,14 @@
         <v>50</v>
       </c>
       <c r="AN22" s="194"/>
-      <c r="AO22" s="395"/>
-      <c r="AP22" s="374">
+      <c r="AO22" s="408"/>
+      <c r="AP22" s="392">
         <v>4</v>
       </c>
-      <c r="AQ22" s="376" t="s">
+      <c r="AQ22" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="376" t="s">
+      <c r="AR22" s="393" t="s">
         <v>59</v>
       </c>
       <c r="AS22" s="9" t="s">
@@ -6324,10 +6324,10 @@
       <c r="BI22" s="40"/>
     </row>
     <row r="23" spans="1:61" ht="30" customHeight="1">
-      <c r="A23" s="395"/>
-      <c r="B23" s="375"/>
-      <c r="C23" s="377"/>
-      <c r="D23" s="377"/>
+      <c r="A23" s="408"/>
+      <c r="B23" s="389"/>
+      <c r="C23" s="391"/>
+      <c r="D23" s="391"/>
       <c r="E23" s="9" t="s">
         <v>2</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>93</v>
       </c>
       <c r="I23" s="336" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J23" s="194"/>
       <c r="K23" s="289" t="s">
@@ -6354,7 +6354,7 @@
         <v>104</v>
       </c>
       <c r="N23" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O23" s="275"/>
       <c r="P23" s="289" t="s">
@@ -6367,13 +6367,13 @@
         <v>104</v>
       </c>
       <c r="S23" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T23" s="258"/>
-      <c r="U23" s="395"/>
-      <c r="V23" s="375"/>
-      <c r="W23" s="377"/>
-      <c r="X23" s="377"/>
+      <c r="U23" s="408"/>
+      <c r="V23" s="389"/>
+      <c r="W23" s="391"/>
+      <c r="X23" s="391"/>
       <c r="Y23" s="9" t="s">
         <v>2</v>
       </c>
@@ -6398,10 +6398,10 @@
         <v>50</v>
       </c>
       <c r="AN23" s="194"/>
-      <c r="AO23" s="395"/>
-      <c r="AP23" s="375"/>
-      <c r="AQ23" s="377"/>
-      <c r="AR23" s="377"/>
+      <c r="AO23" s="408"/>
+      <c r="AP23" s="389"/>
+      <c r="AQ23" s="391"/>
+      <c r="AR23" s="391"/>
       <c r="AS23" s="9" t="s">
         <v>2</v>
       </c>
@@ -6443,14 +6443,14 @@
       <c r="BI23" s="40"/>
     </row>
     <row r="24" spans="1:61" ht="30" customHeight="1">
-      <c r="A24" s="395"/>
-      <c r="B24" s="374">
+      <c r="A24" s="408"/>
+      <c r="B24" s="392">
         <v>5</v>
       </c>
-      <c r="C24" s="376" t="s">
+      <c r="C24" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="376" t="s">
+      <c r="D24" s="393" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -6471,7 +6471,7 @@
         <v>106</v>
       </c>
       <c r="N24" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O24" s="275"/>
       <c r="P24" s="289" t="s">
@@ -6484,17 +6484,17 @@
         <v>106</v>
       </c>
       <c r="S24" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T24" s="258"/>
-      <c r="U24" s="395"/>
-      <c r="V24" s="374">
+      <c r="U24" s="408"/>
+      <c r="V24" s="392">
         <v>5</v>
       </c>
-      <c r="W24" s="376" t="s">
+      <c r="W24" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="X24" s="376" t="s">
+      <c r="X24" s="393" t="s">
         <v>60</v>
       </c>
       <c r="Y24" s="9" t="s">
@@ -6510,7 +6510,7 @@
         <v>102</v>
       </c>
       <c r="AC24" s="155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD24" s="275"/>
       <c r="AE24" s="289" t="s">
@@ -6523,7 +6523,7 @@
         <v>102</v>
       </c>
       <c r="AH24" s="155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI24" s="275"/>
       <c r="AJ24" s="308"/>
@@ -6531,14 +6531,14 @@
       <c r="AL24" s="273"/>
       <c r="AM24" s="336"/>
       <c r="AN24" s="194"/>
-      <c r="AO24" s="395"/>
-      <c r="AP24" s="374">
+      <c r="AO24" s="408"/>
+      <c r="AP24" s="392">
         <v>5</v>
       </c>
-      <c r="AQ24" s="376" t="s">
+      <c r="AQ24" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="AR24" s="376" t="s">
+      <c r="AR24" s="393" t="s">
         <v>60</v>
       </c>
       <c r="AS24" s="9" t="s">
@@ -6574,10 +6574,10 @@
       <c r="BI24" s="40"/>
     </row>
     <row r="25" spans="1:61" ht="30" customHeight="1">
-      <c r="A25" s="395"/>
-      <c r="B25" s="375"/>
-      <c r="C25" s="377"/>
-      <c r="D25" s="377"/>
+      <c r="A25" s="408"/>
+      <c r="B25" s="389"/>
+      <c r="C25" s="391"/>
+      <c r="D25" s="391"/>
       <c r="E25" s="9" t="s">
         <v>2</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>104</v>
       </c>
       <c r="N25" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O25" s="274"/>
       <c r="P25" s="289" t="s">
@@ -6609,13 +6609,13 @@
         <v>104</v>
       </c>
       <c r="S25" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T25" s="245"/>
-      <c r="U25" s="395"/>
-      <c r="V25" s="375"/>
-      <c r="W25" s="377"/>
-      <c r="X25" s="377"/>
+      <c r="U25" s="408"/>
+      <c r="V25" s="389"/>
+      <c r="W25" s="391"/>
+      <c r="X25" s="391"/>
       <c r="Y25" s="9" t="s">
         <v>2</v>
       </c>
@@ -6634,10 +6634,10 @@
       <c r="AL25" s="106"/>
       <c r="AM25" s="333"/>
       <c r="AN25" s="144"/>
-      <c r="AO25" s="395"/>
-      <c r="AP25" s="375"/>
-      <c r="AQ25" s="377"/>
-      <c r="AR25" s="377"/>
+      <c r="AO25" s="408"/>
+      <c r="AP25" s="389"/>
+      <c r="AQ25" s="391"/>
+      <c r="AR25" s="391"/>
       <c r="AS25" s="9" t="s">
         <v>2</v>
       </c>
@@ -6671,14 +6671,14 @@
       <c r="BI25" s="40"/>
     </row>
     <row r="26" spans="1:61" ht="30" customHeight="1">
-      <c r="A26" s="395"/>
-      <c r="B26" s="378">
+      <c r="A26" s="408"/>
+      <c r="B26" s="395">
         <v>6</v>
       </c>
-      <c r="C26" s="380" t="s">
+      <c r="C26" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="380" t="s">
+      <c r="D26" s="394" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -6699,14 +6699,14 @@
       <c r="R26" s="339"/>
       <c r="S26" s="336"/>
       <c r="T26" s="245"/>
-      <c r="U26" s="395"/>
-      <c r="V26" s="378">
+      <c r="U26" s="408"/>
+      <c r="V26" s="395">
         <v>6</v>
       </c>
-      <c r="W26" s="380" t="s">
+      <c r="W26" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="X26" s="380" t="s">
+      <c r="X26" s="394" t="s">
         <v>61</v>
       </c>
       <c r="Y26" s="9" t="s">
@@ -6727,14 +6727,14 @@
       <c r="AL26" s="106"/>
       <c r="AM26" s="336"/>
       <c r="AN26" s="144"/>
-      <c r="AO26" s="395"/>
-      <c r="AP26" s="378">
+      <c r="AO26" s="408"/>
+      <c r="AP26" s="395">
         <v>6</v>
       </c>
-      <c r="AQ26" s="380" t="s">
+      <c r="AQ26" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="AR26" s="380" t="s">
+      <c r="AR26" s="394" t="s">
         <v>61</v>
       </c>
       <c r="AS26" s="9" t="s">
@@ -6758,10 +6758,10 @@
       <c r="BI26" s="40"/>
     </row>
     <row r="27" spans="1:61" ht="30" customHeight="1" thickBot="1">
-      <c r="A27" s="396"/>
-      <c r="B27" s="379"/>
-      <c r="C27" s="381"/>
-      <c r="D27" s="381"/>
+      <c r="A27" s="409"/>
+      <c r="B27" s="396"/>
+      <c r="C27" s="397"/>
+      <c r="D27" s="397"/>
       <c r="E27" s="4" t="s">
         <v>2</v>
       </c>
@@ -6780,10 +6780,10 @@
       <c r="R27" s="243"/>
       <c r="S27" s="217"/>
       <c r="T27" s="247"/>
-      <c r="U27" s="396"/>
-      <c r="V27" s="379"/>
-      <c r="W27" s="381"/>
-      <c r="X27" s="381"/>
+      <c r="U27" s="409"/>
+      <c r="V27" s="396"/>
+      <c r="W27" s="397"/>
+      <c r="X27" s="397"/>
       <c r="Y27" s="4" t="s">
         <v>2</v>
       </c>
@@ -6802,10 +6802,10 @@
       <c r="AL27" s="107"/>
       <c r="AM27" s="239"/>
       <c r="AN27" s="157"/>
-      <c r="AO27" s="396"/>
-      <c r="AP27" s="379"/>
-      <c r="AQ27" s="381"/>
-      <c r="AR27" s="381"/>
+      <c r="AO27" s="409"/>
+      <c r="AP27" s="396"/>
+      <c r="AQ27" s="397"/>
+      <c r="AR27" s="397"/>
       <c r="AS27" s="4" t="s">
         <v>2</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>113</v>
       </c>
       <c r="AW27" s="213" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX27" s="157"/>
       <c r="AY27" s="128"/>
@@ -6835,16 +6835,16 @@
       <c r="BI27" s="40"/>
     </row>
     <row r="28" spans="1:61" ht="30" customHeight="1">
-      <c r="A28" s="390" t="s">
+      <c r="A28" s="404" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="386">
+      <c r="B28" s="388">
         <v>1</v>
       </c>
-      <c r="C28" s="382" t="s">
+      <c r="C28" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="382" t="s">
+      <c r="D28" s="390" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -6857,10 +6857,10 @@
         <v>51</v>
       </c>
       <c r="H28" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I28" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J28" s="195"/>
       <c r="K28" s="342" t="s">
@@ -6870,10 +6870,10 @@
         <v>49</v>
       </c>
       <c r="M28" s="280" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N28" s="292" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O28" s="297"/>
       <c r="P28" s="342" t="s">
@@ -6886,19 +6886,19 @@
         <v>102</v>
       </c>
       <c r="S28" s="292" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T28" s="259"/>
-      <c r="U28" s="390" t="s">
+      <c r="U28" s="404" t="s">
         <v>7</v>
       </c>
-      <c r="V28" s="386">
+      <c r="V28" s="388">
         <v>1</v>
       </c>
-      <c r="W28" s="382" t="s">
+      <c r="W28" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="X28" s="382" t="s">
+      <c r="X28" s="390" t="s">
         <v>27</v>
       </c>
       <c r="Y28" s="7" t="s">
@@ -6911,10 +6911,10 @@
         <v>51</v>
       </c>
       <c r="AB28" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC28" s="276" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD28" s="282"/>
       <c r="AE28" s="177" t="s">
@@ -6924,10 +6924,10 @@
         <v>51</v>
       </c>
       <c r="AG28" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH28" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI28" s="195"/>
       <c r="AJ28" s="177" t="s">
@@ -6937,22 +6937,22 @@
         <v>51</v>
       </c>
       <c r="AL28" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM28" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN28" s="345"/>
-      <c r="AO28" s="390" t="s">
+      <c r="AO28" s="404" t="s">
         <v>7</v>
       </c>
-      <c r="AP28" s="386">
+      <c r="AP28" s="388">
         <v>1</v>
       </c>
-      <c r="AQ28" s="382" t="s">
+      <c r="AQ28" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="AR28" s="382" t="s">
+      <c r="AR28" s="390" t="s">
         <v>27</v>
       </c>
       <c r="AS28" s="7" t="s">
@@ -6981,7 +6981,7 @@
         <v>123</v>
       </c>
       <c r="BB28" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BC28" s="195"/>
       <c r="BD28" s="318" t="s">
@@ -6994,16 +6994,16 @@
         <v>123</v>
       </c>
       <c r="BG28" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH28" s="195"/>
       <c r="BI28" s="40"/>
     </row>
     <row r="29" spans="1:61" ht="30" customHeight="1">
-      <c r="A29" s="391"/>
-      <c r="B29" s="375"/>
-      <c r="C29" s="377"/>
-      <c r="D29" s="377"/>
+      <c r="A29" s="405"/>
+      <c r="B29" s="389"/>
+      <c r="C29" s="391"/>
+      <c r="D29" s="391"/>
       <c r="E29" s="8" t="s">
         <v>2</v>
       </c>
@@ -7030,16 +7030,16 @@
         <v>49</v>
       </c>
       <c r="R29" s="280" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S29" s="292" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T29" s="260"/>
-      <c r="U29" s="391"/>
-      <c r="V29" s="375"/>
-      <c r="W29" s="377"/>
-      <c r="X29" s="377"/>
+      <c r="U29" s="405"/>
+      <c r="V29" s="389"/>
+      <c r="W29" s="391"/>
+      <c r="X29" s="391"/>
       <c r="Y29" s="8" t="s">
         <v>2</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>110</v>
       </c>
       <c r="AC29" s="155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD29" s="283"/>
       <c r="AE29" s="289" t="s">
@@ -7066,7 +7066,7 @@
         <v>102</v>
       </c>
       <c r="AH29" s="155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI29" s="196"/>
       <c r="AJ29" s="288" t="s">
@@ -7082,10 +7082,10 @@
         <v>369</v>
       </c>
       <c r="AN29" s="346"/>
-      <c r="AO29" s="391"/>
-      <c r="AP29" s="375"/>
-      <c r="AQ29" s="377"/>
-      <c r="AR29" s="377"/>
+      <c r="AO29" s="405"/>
+      <c r="AP29" s="389"/>
+      <c r="AQ29" s="391"/>
+      <c r="AR29" s="391"/>
       <c r="AS29" s="8" t="s">
         <v>2</v>
       </c>
@@ -7096,10 +7096,10 @@
         <v>51</v>
       </c>
       <c r="AV29" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AW29" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX29" s="196"/>
       <c r="AY29" s="177" t="s">
@@ -7109,10 +7109,10 @@
         <v>51</v>
       </c>
       <c r="BA29" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BB29" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BC29" s="196"/>
       <c r="BD29" s="177" t="s">
@@ -7122,23 +7122,23 @@
         <v>51</v>
       </c>
       <c r="BF29" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BG29" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH29" s="196"/>
       <c r="BI29" s="40"/>
     </row>
     <row r="30" spans="1:61" ht="30" customHeight="1">
-      <c r="A30" s="391"/>
-      <c r="B30" s="374">
+      <c r="A30" s="405"/>
+      <c r="B30" s="392">
         <v>2</v>
       </c>
-      <c r="C30" s="376" t="s">
+      <c r="C30" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="376" t="s">
+      <c r="D30" s="393" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -7151,10 +7151,10 @@
         <v>51</v>
       </c>
       <c r="H30" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I30" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J30" s="195"/>
       <c r="K30" s="342" t="s">
@@ -7164,10 +7164,10 @@
         <v>49</v>
       </c>
       <c r="M30" s="280" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N30" s="292" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O30" s="297"/>
       <c r="P30" s="342" t="s">
@@ -7180,17 +7180,17 @@
         <v>102</v>
       </c>
       <c r="S30" s="292" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T30" s="259"/>
-      <c r="U30" s="391"/>
-      <c r="V30" s="374">
+      <c r="U30" s="405"/>
+      <c r="V30" s="392">
         <v>2</v>
       </c>
-      <c r="W30" s="376" t="s">
+      <c r="W30" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="X30" s="376" t="s">
+      <c r="X30" s="393" t="s">
         <v>29</v>
       </c>
       <c r="Y30" s="9" t="s">
@@ -7203,10 +7203,10 @@
         <v>51</v>
       </c>
       <c r="AB30" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC30" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD30" s="282"/>
       <c r="AE30" s="177" t="s">
@@ -7216,10 +7216,10 @@
         <v>51</v>
       </c>
       <c r="AG30" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH30" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI30" s="195"/>
       <c r="AJ30" s="177" t="s">
@@ -7229,20 +7229,20 @@
         <v>51</v>
       </c>
       <c r="AL30" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM30" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN30" s="195"/>
-      <c r="AO30" s="391"/>
-      <c r="AP30" s="374">
+      <c r="AO30" s="405"/>
+      <c r="AP30" s="392">
         <v>2</v>
       </c>
-      <c r="AQ30" s="376" t="s">
+      <c r="AQ30" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="AR30" s="376" t="s">
+      <c r="AR30" s="393" t="s">
         <v>29</v>
       </c>
       <c r="AS30" s="9" t="s">
@@ -7271,7 +7271,7 @@
         <v>123</v>
       </c>
       <c r="BB30" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BC30" s="195"/>
       <c r="BD30" s="318" t="s">
@@ -7284,16 +7284,16 @@
         <v>123</v>
       </c>
       <c r="BG30" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH30" s="195"/>
       <c r="BI30" s="40"/>
     </row>
     <row r="31" spans="1:61" ht="30" customHeight="1">
-      <c r="A31" s="391"/>
-      <c r="B31" s="375"/>
-      <c r="C31" s="377"/>
-      <c r="D31" s="377"/>
+      <c r="A31" s="405"/>
+      <c r="B31" s="389"/>
+      <c r="C31" s="391"/>
+      <c r="D31" s="391"/>
       <c r="E31" s="9" t="s">
         <v>2</v>
       </c>
@@ -7320,16 +7320,16 @@
         <v>49</v>
       </c>
       <c r="R31" s="280" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S31" s="292" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T31" s="260"/>
-      <c r="U31" s="391"/>
-      <c r="V31" s="375"/>
-      <c r="W31" s="377"/>
-      <c r="X31" s="377"/>
+      <c r="U31" s="405"/>
+      <c r="V31" s="389"/>
+      <c r="W31" s="391"/>
+      <c r="X31" s="391"/>
       <c r="Y31" s="9" t="s">
         <v>2</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>110</v>
       </c>
       <c r="AC31" s="155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD31" s="283"/>
       <c r="AE31" s="289" t="s">
@@ -7356,7 +7356,7 @@
         <v>102</v>
       </c>
       <c r="AH31" s="155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI31" s="196"/>
       <c r="AJ31" s="288" t="s">
@@ -7372,10 +7372,10 @@
         <v>369</v>
       </c>
       <c r="AN31" s="196"/>
-      <c r="AO31" s="391"/>
-      <c r="AP31" s="375"/>
-      <c r="AQ31" s="377"/>
-      <c r="AR31" s="377"/>
+      <c r="AO31" s="405"/>
+      <c r="AP31" s="389"/>
+      <c r="AQ31" s="391"/>
+      <c r="AR31" s="391"/>
       <c r="AS31" s="9" t="s">
         <v>2</v>
       </c>
@@ -7386,10 +7386,10 @@
         <v>51</v>
       </c>
       <c r="AV31" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AW31" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX31" s="196"/>
       <c r="AY31" s="177" t="s">
@@ -7399,10 +7399,10 @@
         <v>51</v>
       </c>
       <c r="BA31" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BB31" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BC31" s="196"/>
       <c r="BD31" s="177" t="s">
@@ -7412,23 +7412,23 @@
         <v>51</v>
       </c>
       <c r="BF31" s="179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BG31" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH31" s="196"/>
       <c r="BI31" s="40"/>
     </row>
     <row r="32" spans="1:61" ht="29.25" customHeight="1">
-      <c r="A32" s="391"/>
-      <c r="B32" s="374">
+      <c r="A32" s="405"/>
+      <c r="B32" s="392">
         <v>3</v>
       </c>
-      <c r="C32" s="376" t="s">
+      <c r="C32" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="376" t="s">
+      <c r="D32" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -7449,7 +7449,7 @@
         <v>102</v>
       </c>
       <c r="N32" s="292" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O32" s="285"/>
       <c r="P32" s="289"/>
@@ -7457,14 +7457,14 @@
       <c r="R32" s="280"/>
       <c r="S32" s="292"/>
       <c r="T32" s="226"/>
-      <c r="U32" s="391"/>
-      <c r="V32" s="374">
+      <c r="U32" s="405"/>
+      <c r="V32" s="392">
         <v>3</v>
       </c>
-      <c r="W32" s="376" t="s">
+      <c r="W32" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="X32" s="376" t="s">
+      <c r="X32" s="393" t="s">
         <v>57</v>
       </c>
       <c r="Y32" s="9" t="s">
@@ -7485,21 +7485,21 @@
       <c r="AL32" s="82"/>
       <c r="AM32" s="110"/>
       <c r="AN32" s="112"/>
-      <c r="AO32" s="391"/>
-      <c r="AP32" s="374">
+      <c r="AO32" s="405"/>
+      <c r="AP32" s="392">
         <v>3</v>
       </c>
-      <c r="AQ32" s="376" t="s">
+      <c r="AQ32" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="AR32" s="376" t="s">
+      <c r="AR32" s="393" t="s">
         <v>57</v>
       </c>
       <c r="AS32" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AT32" s="139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AU32" s="290" t="s">
         <v>53</v>
@@ -7524,10 +7524,10 @@
       <c r="BI32" s="40"/>
     </row>
     <row r="33" spans="1:61" ht="30" customHeight="1">
-      <c r="A33" s="391"/>
-      <c r="B33" s="375"/>
-      <c r="C33" s="380"/>
-      <c r="D33" s="380"/>
+      <c r="A33" s="405"/>
+      <c r="B33" s="389"/>
+      <c r="C33" s="394"/>
+      <c r="D33" s="394"/>
       <c r="E33" s="9" t="s">
         <v>2</v>
       </c>
@@ -7558,10 +7558,10 @@
       <c r="R33" s="286"/>
       <c r="S33" s="336"/>
       <c r="T33" s="226"/>
-      <c r="U33" s="391"/>
-      <c r="V33" s="375"/>
-      <c r="W33" s="380"/>
-      <c r="X33" s="380"/>
+      <c r="U33" s="405"/>
+      <c r="V33" s="389"/>
+      <c r="W33" s="394"/>
+      <c r="X33" s="394"/>
       <c r="Y33" s="9" t="s">
         <v>2</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>102</v>
       </c>
       <c r="AC33" s="155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD33" s="277"/>
       <c r="AE33" s="342" t="s">
@@ -7588,7 +7588,7 @@
         <v>110</v>
       </c>
       <c r="AH33" s="155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI33" s="112"/>
       <c r="AJ33" s="308" t="s">
@@ -7604,10 +7604,10 @@
         <v>369</v>
       </c>
       <c r="AN33" s="112"/>
-      <c r="AO33" s="391"/>
-      <c r="AP33" s="375"/>
-      <c r="AQ33" s="380"/>
-      <c r="AR33" s="380"/>
+      <c r="AO33" s="405"/>
+      <c r="AP33" s="389"/>
+      <c r="AQ33" s="394"/>
+      <c r="AR33" s="394"/>
       <c r="AS33" s="9" t="s">
         <v>2</v>
       </c>
@@ -7629,14 +7629,14 @@
       <c r="BI33" s="40"/>
     </row>
     <row r="34" spans="1:61" ht="29.25" customHeight="1">
-      <c r="A34" s="391"/>
-      <c r="B34" s="374">
+      <c r="A34" s="405"/>
+      <c r="B34" s="392">
         <v>4</v>
       </c>
-      <c r="C34" s="376" t="s">
+      <c r="C34" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="376" t="s">
+      <c r="D34" s="393" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -7657,7 +7657,7 @@
         <v>102</v>
       </c>
       <c r="N34" s="292" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O34" s="285"/>
       <c r="P34" s="342"/>
@@ -7665,14 +7665,14 @@
       <c r="R34" s="280"/>
       <c r="S34" s="292"/>
       <c r="T34" s="226"/>
-      <c r="U34" s="391"/>
-      <c r="V34" s="374">
+      <c r="U34" s="405"/>
+      <c r="V34" s="392">
         <v>4</v>
       </c>
-      <c r="W34" s="376" t="s">
+      <c r="W34" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="X34" s="376" t="s">
+      <c r="X34" s="393" t="s">
         <v>59</v>
       </c>
       <c r="Y34" s="9" t="s">
@@ -7693,21 +7693,21 @@
       <c r="AL34" s="82"/>
       <c r="AM34" s="110"/>
       <c r="AN34" s="112"/>
-      <c r="AO34" s="391"/>
-      <c r="AP34" s="374">
+      <c r="AO34" s="405"/>
+      <c r="AP34" s="392">
         <v>4</v>
       </c>
-      <c r="AQ34" s="376" t="s">
+      <c r="AQ34" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="AR34" s="376" t="s">
+      <c r="AR34" s="393" t="s">
         <v>59</v>
       </c>
       <c r="AS34" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AT34" s="139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AU34" s="290" t="s">
         <v>53</v>
@@ -7740,10 +7740,10 @@
       <c r="BI34" s="40"/>
     </row>
     <row r="35" spans="1:61" ht="30" customHeight="1">
-      <c r="A35" s="391"/>
-      <c r="B35" s="375"/>
-      <c r="C35" s="377"/>
-      <c r="D35" s="377"/>
+      <c r="A35" s="405"/>
+      <c r="B35" s="389"/>
+      <c r="C35" s="391"/>
+      <c r="D35" s="391"/>
       <c r="E35" s="9" t="s">
         <v>2</v>
       </c>
@@ -7772,10 +7772,10 @@
       <c r="R35" s="286"/>
       <c r="S35" s="336"/>
       <c r="T35" s="226"/>
-      <c r="U35" s="391"/>
-      <c r="V35" s="375"/>
-      <c r="W35" s="377"/>
-      <c r="X35" s="377"/>
+      <c r="U35" s="405"/>
+      <c r="V35" s="389"/>
+      <c r="W35" s="391"/>
+      <c r="X35" s="391"/>
       <c r="Y35" s="9" t="s">
         <v>2</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>102</v>
       </c>
       <c r="AC35" s="155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD35" s="277"/>
       <c r="AE35" s="342" t="s">
@@ -7802,7 +7802,7 @@
         <v>110</v>
       </c>
       <c r="AH35" s="155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI35" s="112"/>
       <c r="AJ35" s="168"/>
@@ -7810,10 +7810,10 @@
       <c r="AL35" s="82"/>
       <c r="AM35" s="110"/>
       <c r="AN35" s="112"/>
-      <c r="AO35" s="391"/>
-      <c r="AP35" s="375"/>
-      <c r="AQ35" s="377"/>
-      <c r="AR35" s="377"/>
+      <c r="AO35" s="405"/>
+      <c r="AP35" s="389"/>
+      <c r="AQ35" s="391"/>
+      <c r="AR35" s="391"/>
       <c r="AS35" s="9" t="s">
         <v>2</v>
       </c>
@@ -7843,14 +7843,14 @@
       <c r="BI35" s="40"/>
     </row>
     <row r="36" spans="1:61" ht="30" customHeight="1">
-      <c r="A36" s="391"/>
-      <c r="B36" s="374">
+      <c r="A36" s="405"/>
+      <c r="B36" s="392">
         <v>5</v>
       </c>
-      <c r="C36" s="376" t="s">
+      <c r="C36" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="376" t="s">
+      <c r="D36" s="393" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -7871,7 +7871,7 @@
         <v>102</v>
       </c>
       <c r="N36" s="292" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O36" s="261"/>
       <c r="P36" s="222"/>
@@ -7879,14 +7879,14 @@
       <c r="R36" s="241"/>
       <c r="S36" s="344"/>
       <c r="T36" s="261"/>
-      <c r="U36" s="391"/>
-      <c r="V36" s="374">
+      <c r="U36" s="405"/>
+      <c r="V36" s="392">
         <v>5</v>
       </c>
-      <c r="W36" s="376" t="s">
+      <c r="W36" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="X36" s="376" t="s">
+      <c r="X36" s="393" t="s">
         <v>60</v>
       </c>
       <c r="Y36" s="9" t="s">
@@ -7907,14 +7907,14 @@
       <c r="AL36" s="103"/>
       <c r="AM36" s="148"/>
       <c r="AN36" s="197"/>
-      <c r="AO36" s="391"/>
-      <c r="AP36" s="374">
+      <c r="AO36" s="405"/>
+      <c r="AP36" s="392">
         <v>5</v>
       </c>
-      <c r="AQ36" s="376" t="s">
+      <c r="AQ36" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="AR36" s="376" t="s">
+      <c r="AR36" s="393" t="s">
         <v>60</v>
       </c>
       <c r="AS36" s="9" t="s">
@@ -7946,10 +7946,10 @@
       <c r="BI36" s="40"/>
     </row>
     <row r="37" spans="1:61" ht="30" customHeight="1">
-      <c r="A37" s="391"/>
-      <c r="B37" s="375"/>
-      <c r="C37" s="377"/>
-      <c r="D37" s="377"/>
+      <c r="A37" s="405"/>
+      <c r="B37" s="389"/>
+      <c r="C37" s="391"/>
+      <c r="D37" s="391"/>
       <c r="E37" s="9" t="s">
         <v>2</v>
       </c>
@@ -7968,16 +7968,16 @@
       <c r="N37" s="336"/>
       <c r="O37" s="262"/>
       <c r="P37" s="289" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q37" s="290"/>
       <c r="R37" s="286"/>
       <c r="S37" s="336"/>
       <c r="T37" s="262"/>
-      <c r="U37" s="391"/>
-      <c r="V37" s="375"/>
-      <c r="W37" s="377"/>
-      <c r="X37" s="377"/>
+      <c r="U37" s="405"/>
+      <c r="V37" s="389"/>
+      <c r="W37" s="391"/>
+      <c r="X37" s="391"/>
       <c r="Y37" s="9" t="s">
         <v>2</v>
       </c>
@@ -7996,10 +7996,10 @@
       <c r="AL37" s="159"/>
       <c r="AM37" s="148"/>
       <c r="AN37" s="198"/>
-      <c r="AO37" s="391"/>
-      <c r="AP37" s="375"/>
-      <c r="AQ37" s="377"/>
-      <c r="AR37" s="377"/>
+      <c r="AO37" s="405"/>
+      <c r="AP37" s="389"/>
+      <c r="AQ37" s="391"/>
+      <c r="AR37" s="391"/>
       <c r="AS37" s="9" t="s">
         <v>2</v>
       </c>
@@ -8029,14 +8029,14 @@
       <c r="BI37" s="40"/>
     </row>
     <row r="38" spans="1:61" ht="30" customHeight="1">
-      <c r="A38" s="391"/>
-      <c r="B38" s="378">
+      <c r="A38" s="405"/>
+      <c r="B38" s="395">
         <v>6</v>
       </c>
-      <c r="C38" s="380" t="s">
+      <c r="C38" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="380" t="s">
+      <c r="D38" s="394" t="s">
         <v>61</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -8057,14 +8057,14 @@
       <c r="R38" s="241"/>
       <c r="S38" s="344"/>
       <c r="T38" s="226"/>
-      <c r="U38" s="391"/>
-      <c r="V38" s="378">
+      <c r="U38" s="405"/>
+      <c r="V38" s="395">
         <v>6</v>
       </c>
-      <c r="W38" s="380" t="s">
+      <c r="W38" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="X38" s="380" t="s">
+      <c r="X38" s="394" t="s">
         <v>61</v>
       </c>
       <c r="Y38" s="9" t="s">
@@ -8085,14 +8085,14 @@
       <c r="AL38" s="123"/>
       <c r="AM38" s="143"/>
       <c r="AN38" s="112"/>
-      <c r="AO38" s="392"/>
-      <c r="AP38" s="378">
+      <c r="AO38" s="432"/>
+      <c r="AP38" s="395">
         <v>6</v>
       </c>
-      <c r="AQ38" s="380" t="s">
+      <c r="AQ38" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="AR38" s="380" t="s">
+      <c r="AR38" s="394" t="s">
         <v>61</v>
       </c>
       <c r="AS38" s="9" t="s">
@@ -8124,10 +8124,10 @@
       <c r="BI38" s="40"/>
     </row>
     <row r="39" spans="1:61" ht="30" customHeight="1" thickBot="1">
-      <c r="A39" s="393"/>
-      <c r="B39" s="379"/>
-      <c r="C39" s="381"/>
-      <c r="D39" s="381"/>
+      <c r="A39" s="406"/>
+      <c r="B39" s="396"/>
+      <c r="C39" s="397"/>
+      <c r="D39" s="397"/>
       <c r="E39" s="4" t="s">
         <v>2</v>
       </c>
@@ -8142,16 +8142,16 @@
       <c r="N39" s="217"/>
       <c r="O39" s="263"/>
       <c r="P39" s="289" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q39" s="243"/>
       <c r="R39" s="243"/>
       <c r="S39" s="217"/>
       <c r="T39" s="263"/>
-      <c r="U39" s="393"/>
-      <c r="V39" s="379"/>
-      <c r="W39" s="381"/>
-      <c r="X39" s="381"/>
+      <c r="U39" s="406"/>
+      <c r="V39" s="396"/>
+      <c r="W39" s="397"/>
+      <c r="X39" s="397"/>
       <c r="Y39" s="4" t="s">
         <v>2</v>
       </c>
@@ -8170,10 +8170,10 @@
       <c r="AL39" s="131"/>
       <c r="AM39" s="158"/>
       <c r="AN39" s="199"/>
-      <c r="AO39" s="393"/>
-      <c r="AP39" s="379"/>
-      <c r="AQ39" s="381"/>
-      <c r="AR39" s="381"/>
+      <c r="AO39" s="406"/>
+      <c r="AP39" s="396"/>
+      <c r="AQ39" s="397"/>
+      <c r="AR39" s="397"/>
       <c r="AS39" s="4" t="s">
         <v>2</v>
       </c>
@@ -8203,16 +8203,16 @@
       <c r="BI39" s="40"/>
     </row>
     <row r="40" spans="1:61" ht="30" customHeight="1">
-      <c r="A40" s="387" t="s">
+      <c r="A40" s="401" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="386">
+      <c r="B40" s="388">
         <v>1</v>
       </c>
-      <c r="C40" s="382" t="s">
+      <c r="C40" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="382" t="s">
+      <c r="D40" s="390" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -8225,44 +8225,44 @@
         <v>53</v>
       </c>
       <c r="H40" s="162" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I40" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J40" s="195"/>
       <c r="K40" s="289" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L40" s="343"/>
       <c r="M40" s="339" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N40" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O40" s="297"/>
       <c r="P40" s="289" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q40" s="343"/>
       <c r="R40" s="339" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S40" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T40" s="259"/>
-      <c r="U40" s="387" t="s">
+      <c r="U40" s="401" t="s">
         <v>8</v>
       </c>
-      <c r="V40" s="386">
+      <c r="V40" s="388">
         <v>1</v>
       </c>
-      <c r="W40" s="382" t="s">
+      <c r="W40" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="X40" s="382" t="s">
+      <c r="X40" s="390" t="s">
         <v>27</v>
       </c>
       <c r="Y40" s="7" t="s">
@@ -8278,7 +8278,7 @@
         <v>110</v>
       </c>
       <c r="AC40" s="155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD40" s="297"/>
       <c r="AE40" s="289" t="s">
@@ -8291,7 +8291,7 @@
         <v>109</v>
       </c>
       <c r="AH40" s="155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI40" s="297"/>
       <c r="AJ40" s="163" t="s">
@@ -8304,19 +8304,19 @@
         <v>67</v>
       </c>
       <c r="AM40" s="344" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN40" s="195"/>
-      <c r="AO40" s="387" t="s">
+      <c r="AO40" s="401" t="s">
         <v>8</v>
       </c>
-      <c r="AP40" s="386">
+      <c r="AP40" s="388">
         <v>1</v>
       </c>
-      <c r="AQ40" s="382" t="s">
+      <c r="AQ40" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="AR40" s="382" t="s">
+      <c r="AR40" s="390" t="s">
         <v>27</v>
       </c>
       <c r="AS40" s="7" t="s">
@@ -8329,10 +8329,10 @@
         <v>49</v>
       </c>
       <c r="AV40" s="295" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AW40" s="344" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AX40" s="297"/>
       <c r="AY40" s="301"/>
@@ -8348,10 +8348,10 @@
       <c r="BI40" s="40"/>
     </row>
     <row r="41" spans="1:61" ht="30" customHeight="1">
-      <c r="A41" s="388"/>
-      <c r="B41" s="375"/>
-      <c r="C41" s="377"/>
-      <c r="D41" s="377"/>
+      <c r="A41" s="402"/>
+      <c r="B41" s="389"/>
+      <c r="C41" s="391"/>
+      <c r="D41" s="391"/>
       <c r="E41" s="8" t="s">
         <v>2</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>110</v>
       </c>
       <c r="N41" s="292" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O41" s="275"/>
       <c r="P41" s="289" t="s">
@@ -8383,13 +8383,13 @@
         <v>109</v>
       </c>
       <c r="S41" s="292" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T41" s="226"/>
-      <c r="U41" s="388"/>
-      <c r="V41" s="375"/>
-      <c r="W41" s="377"/>
-      <c r="X41" s="377"/>
+      <c r="U41" s="402"/>
+      <c r="V41" s="389"/>
+      <c r="W41" s="391"/>
+      <c r="X41" s="391"/>
       <c r="Y41" s="8" t="s">
         <v>2</v>
       </c>
@@ -8400,10 +8400,10 @@
         <v>49</v>
       </c>
       <c r="AB41" s="295" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC41" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD41" s="285"/>
       <c r="AE41" s="294" t="s">
@@ -8413,10 +8413,10 @@
         <v>49</v>
       </c>
       <c r="AG41" s="295" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH41" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI41" s="285"/>
       <c r="AJ41" s="308"/>
@@ -8424,10 +8424,10 @@
       <c r="AL41" s="273"/>
       <c r="AM41" s="284"/>
       <c r="AN41" s="112"/>
-      <c r="AO41" s="388"/>
-      <c r="AP41" s="375"/>
-      <c r="AQ41" s="377"/>
-      <c r="AR41" s="377"/>
+      <c r="AO41" s="402"/>
+      <c r="AP41" s="389"/>
+      <c r="AQ41" s="391"/>
+      <c r="AR41" s="391"/>
       <c r="AS41" s="8" t="s">
         <v>2</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>120</v>
       </c>
       <c r="AW41" s="284" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX41" s="285"/>
       <c r="AY41" s="309"/>
@@ -8457,14 +8457,14 @@
       <c r="BI41" s="40"/>
     </row>
     <row r="42" spans="1:61" ht="30" customHeight="1">
-      <c r="A42" s="388"/>
-      <c r="B42" s="374">
+      <c r="A42" s="402"/>
+      <c r="B42" s="392">
         <v>2</v>
       </c>
-      <c r="C42" s="376" t="s">
+      <c r="C42" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="376" t="s">
+      <c r="D42" s="393" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="9" t="s">
@@ -8477,38 +8477,38 @@
         <v>53</v>
       </c>
       <c r="H42" s="295" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I42" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J42" s="200"/>
       <c r="K42" s="289" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L42" s="343"/>
       <c r="M42" s="339"/>
       <c r="N42" s="336"/>
       <c r="O42" s="298"/>
       <c r="P42" s="289" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q42" s="343"/>
       <c r="R42" s="339" t="s">
         <v>106</v>
       </c>
       <c r="S42" s="292" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T42" s="264"/>
-      <c r="U42" s="388"/>
-      <c r="V42" s="374">
+      <c r="U42" s="402"/>
+      <c r="V42" s="392">
         <v>2</v>
       </c>
-      <c r="W42" s="376" t="s">
+      <c r="W42" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="X42" s="376" t="s">
+      <c r="X42" s="393" t="s">
         <v>29</v>
       </c>
       <c r="Y42" s="9" t="s">
@@ -8524,7 +8524,7 @@
         <v>110</v>
       </c>
       <c r="AC42" s="155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD42" s="298"/>
       <c r="AE42" s="289" t="s">
@@ -8537,7 +8537,7 @@
         <v>109</v>
       </c>
       <c r="AH42" s="155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI42" s="298"/>
       <c r="AJ42" s="163" t="s">
@@ -8550,17 +8550,17 @@
         <v>67</v>
       </c>
       <c r="AM42" s="344" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN42" s="200"/>
-      <c r="AO42" s="388"/>
-      <c r="AP42" s="374">
+      <c r="AO42" s="402"/>
+      <c r="AP42" s="392">
         <v>2</v>
       </c>
-      <c r="AQ42" s="376" t="s">
+      <c r="AQ42" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="AR42" s="376" t="s">
+      <c r="AR42" s="393" t="s">
         <v>29</v>
       </c>
       <c r="AS42" s="9" t="s">
@@ -8573,10 +8573,10 @@
         <v>49</v>
       </c>
       <c r="AV42" s="295" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AW42" s="344" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AX42" s="298"/>
       <c r="AY42" s="59"/>
@@ -8592,10 +8592,10 @@
       <c r="BI42" s="40"/>
     </row>
     <row r="43" spans="1:61" ht="30" customHeight="1">
-      <c r="A43" s="388"/>
-      <c r="B43" s="375"/>
-      <c r="C43" s="377"/>
-      <c r="D43" s="377"/>
+      <c r="A43" s="402"/>
+      <c r="B43" s="389"/>
+      <c r="C43" s="391"/>
+      <c r="D43" s="391"/>
       <c r="E43" s="9" t="s">
         <v>2</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>80</v>
       </c>
       <c r="I43" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J43" s="200"/>
       <c r="K43" s="342" t="s">
@@ -8622,7 +8622,7 @@
         <v>110</v>
       </c>
       <c r="N43" s="292" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O43" s="275"/>
       <c r="P43" s="289" t="s">
@@ -8635,13 +8635,13 @@
         <v>109</v>
       </c>
       <c r="S43" s="292" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T43" s="264"/>
-      <c r="U43" s="388"/>
-      <c r="V43" s="375"/>
-      <c r="W43" s="377"/>
-      <c r="X43" s="377"/>
+      <c r="U43" s="402"/>
+      <c r="V43" s="389"/>
+      <c r="W43" s="391"/>
+      <c r="X43" s="391"/>
       <c r="Y43" s="9" t="s">
         <v>2</v>
       </c>
@@ -8652,10 +8652,10 @@
         <v>49</v>
       </c>
       <c r="AB43" s="295" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC43" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD43" s="298"/>
       <c r="AE43" s="294" t="s">
@@ -8665,10 +8665,10 @@
         <v>49</v>
       </c>
       <c r="AG43" s="295" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH43" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI43" s="298"/>
       <c r="AJ43" s="308" t="s">
@@ -8681,13 +8681,13 @@
         <v>80</v>
       </c>
       <c r="AM43" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN43" s="200"/>
-      <c r="AO43" s="388"/>
-      <c r="AP43" s="375"/>
-      <c r="AQ43" s="377"/>
-      <c r="AR43" s="377"/>
+      <c r="AO43" s="402"/>
+      <c r="AP43" s="389"/>
+      <c r="AQ43" s="391"/>
+      <c r="AR43" s="391"/>
       <c r="AS43" s="9" t="s">
         <v>2</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>80</v>
       </c>
       <c r="AW43" s="284" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX43" s="298"/>
       <c r="AY43" s="308" t="s">
@@ -8714,7 +8714,7 @@
         <v>80</v>
       </c>
       <c r="BB43" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BC43" s="298"/>
       <c r="BD43" s="86" t="s">
@@ -8727,20 +8727,20 @@
         <v>80</v>
       </c>
       <c r="BG43" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH43" s="200"/>
       <c r="BI43" s="40"/>
     </row>
     <row r="44" spans="1:61" ht="30" customHeight="1">
-      <c r="A44" s="388"/>
-      <c r="B44" s="374">
+      <c r="A44" s="402"/>
+      <c r="B44" s="392">
         <v>3</v>
       </c>
-      <c r="C44" s="376" t="s">
+      <c r="C44" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="376" t="s">
+      <c r="D44" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="9" t="s">
@@ -8753,14 +8753,14 @@
         <v>49</v>
       </c>
       <c r="H44" s="162" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I44" s="180" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J44" s="200"/>
       <c r="K44" s="289" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L44" s="343"/>
       <c r="M44" s="339"/>
@@ -8771,14 +8771,14 @@
       <c r="R44" s="339"/>
       <c r="S44" s="336"/>
       <c r="T44" s="264"/>
-      <c r="U44" s="388"/>
-      <c r="V44" s="374">
+      <c r="U44" s="402"/>
+      <c r="V44" s="392">
         <v>3</v>
       </c>
-      <c r="W44" s="376" t="s">
+      <c r="W44" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="X44" s="376" t="s">
+      <c r="X44" s="393" t="s">
         <v>57</v>
       </c>
       <c r="Y44" s="9" t="s">
@@ -8794,7 +8794,7 @@
         <v>109</v>
       </c>
       <c r="AC44" s="155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD44" s="298"/>
       <c r="AE44" s="348" t="s">
@@ -8807,7 +8807,7 @@
         <v>110</v>
       </c>
       <c r="AH44" s="351" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI44" s="298"/>
       <c r="AJ44" s="294" t="s">
@@ -8817,20 +8817,20 @@
         <v>53</v>
       </c>
       <c r="AL44" s="347" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AM44" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AN44" s="200"/>
-      <c r="AO44" s="388"/>
-      <c r="AP44" s="374">
+      <c r="AO44" s="402"/>
+      <c r="AP44" s="392">
         <v>3</v>
       </c>
-      <c r="AQ44" s="376" t="s">
+      <c r="AQ44" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="AR44" s="376" t="s">
+      <c r="AR44" s="393" t="s">
         <v>57</v>
       </c>
       <c r="AS44" s="9" t="s">
@@ -8843,10 +8843,10 @@
         <v>53</v>
       </c>
       <c r="AV44" s="347" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AW44" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AX44" s="298"/>
       <c r="AY44" s="289"/>
@@ -8862,10 +8862,10 @@
       <c r="BI44" s="40"/>
     </row>
     <row r="45" spans="1:61" ht="30" customHeight="1">
-      <c r="A45" s="388"/>
-      <c r="B45" s="375"/>
-      <c r="C45" s="380"/>
-      <c r="D45" s="380"/>
+      <c r="A45" s="402"/>
+      <c r="B45" s="389"/>
+      <c r="C45" s="394"/>
+      <c r="D45" s="394"/>
       <c r="E45" s="9" t="s">
         <v>2</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>82</v>
       </c>
       <c r="I45" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J45" s="200"/>
       <c r="K45" s="289" t="s">
@@ -8892,7 +8892,7 @@
         <v>109</v>
       </c>
       <c r="N45" s="292" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O45" s="298"/>
       <c r="P45" s="342" t="s">
@@ -8905,13 +8905,13 @@
         <v>110</v>
       </c>
       <c r="S45" s="292" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T45" s="264"/>
-      <c r="U45" s="388"/>
-      <c r="V45" s="375"/>
-      <c r="W45" s="380"/>
-      <c r="X45" s="380"/>
+      <c r="U45" s="402"/>
+      <c r="V45" s="389"/>
+      <c r="W45" s="394"/>
+      <c r="X45" s="394"/>
       <c r="Y45" s="9" t="s">
         <v>2</v>
       </c>
@@ -8922,10 +8922,10 @@
         <v>53</v>
       </c>
       <c r="AB45" s="295" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC45" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD45" s="298"/>
       <c r="AE45" s="294" t="s">
@@ -8935,10 +8935,10 @@
         <v>53</v>
       </c>
       <c r="AG45" s="295" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH45" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI45" s="298"/>
       <c r="AJ45" s="288" t="s">
@@ -8951,13 +8951,13 @@
         <v>82</v>
       </c>
       <c r="AM45" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN45" s="200"/>
-      <c r="AO45" s="388"/>
-      <c r="AP45" s="375"/>
-      <c r="AQ45" s="380"/>
-      <c r="AR45" s="380"/>
+      <c r="AO45" s="402"/>
+      <c r="AP45" s="389"/>
+      <c r="AQ45" s="394"/>
+      <c r="AR45" s="394"/>
       <c r="AS45" s="9" t="s">
         <v>2</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>82</v>
       </c>
       <c r="AW45" s="284" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX45" s="298"/>
       <c r="AY45" s="288" t="s">
@@ -8984,7 +8984,7 @@
         <v>82</v>
       </c>
       <c r="BB45" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BC45" s="200"/>
       <c r="BD45" s="288" t="s">
@@ -8997,20 +8997,20 @@
         <v>82</v>
       </c>
       <c r="BG45" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH45" s="200"/>
       <c r="BI45" s="40"/>
     </row>
     <row r="46" spans="1:61" ht="30" customHeight="1">
-      <c r="A46" s="388"/>
-      <c r="B46" s="374">
+      <c r="A46" s="402"/>
+      <c r="B46" s="392">
         <v>4</v>
       </c>
-      <c r="C46" s="376" t="s">
+      <c r="C46" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="376" t="s">
+      <c r="D46" s="393" t="s">
         <v>59</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -9023,14 +9023,14 @@
         <v>49</v>
       </c>
       <c r="H46" s="295" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="344" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J46" s="200"/>
       <c r="K46" s="289" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L46" s="343"/>
       <c r="M46" s="339"/>
@@ -9041,14 +9041,14 @@
       <c r="R46" s="339"/>
       <c r="S46" s="336"/>
       <c r="T46" s="264"/>
-      <c r="U46" s="388"/>
-      <c r="V46" s="374">
+      <c r="U46" s="402"/>
+      <c r="V46" s="392">
         <v>4</v>
       </c>
-      <c r="W46" s="376" t="s">
+      <c r="W46" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="X46" s="376" t="s">
+      <c r="X46" s="393" t="s">
         <v>59</v>
       </c>
       <c r="Y46" s="9" t="s">
@@ -9064,7 +9064,7 @@
         <v>109</v>
       </c>
       <c r="AC46" s="155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD46" s="298"/>
       <c r="AE46" s="348" t="s">
@@ -9077,7 +9077,7 @@
         <v>110</v>
       </c>
       <c r="AH46" s="351" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI46" s="298"/>
       <c r="AJ46" s="294" t="s">
@@ -9087,20 +9087,20 @@
         <v>53</v>
       </c>
       <c r="AL46" s="347" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AM46" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AN46" s="200"/>
-      <c r="AO46" s="388"/>
-      <c r="AP46" s="374">
+      <c r="AO46" s="402"/>
+      <c r="AP46" s="392">
         <v>4</v>
       </c>
-      <c r="AQ46" s="376" t="s">
+      <c r="AQ46" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="AR46" s="376" t="s">
+      <c r="AR46" s="393" t="s">
         <v>59</v>
       </c>
       <c r="AS46" s="9" t="s">
@@ -9113,10 +9113,10 @@
         <v>53</v>
       </c>
       <c r="AV46" s="347" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AW46" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AX46" s="298"/>
       <c r="AY46" s="288" t="s">
@@ -9148,10 +9148,10 @@
       <c r="BI46" s="40"/>
     </row>
     <row r="47" spans="1:61" ht="30" customHeight="1">
-      <c r="A47" s="388"/>
-      <c r="B47" s="375"/>
-      <c r="C47" s="377"/>
-      <c r="D47" s="377"/>
+      <c r="A47" s="402"/>
+      <c r="B47" s="389"/>
+      <c r="C47" s="391"/>
+      <c r="D47" s="391"/>
       <c r="E47" s="9" t="s">
         <v>2</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>82</v>
       </c>
       <c r="I47" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J47" s="201"/>
       <c r="K47" s="289" t="s">
@@ -9178,7 +9178,7 @@
         <v>109</v>
       </c>
       <c r="N47" s="292" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O47" s="299"/>
       <c r="P47" s="342" t="s">
@@ -9191,13 +9191,13 @@
         <v>110</v>
       </c>
       <c r="S47" s="292" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T47" s="265"/>
-      <c r="U47" s="388"/>
-      <c r="V47" s="375"/>
-      <c r="W47" s="377"/>
-      <c r="X47" s="377"/>
+      <c r="U47" s="402"/>
+      <c r="V47" s="389"/>
+      <c r="W47" s="391"/>
+      <c r="X47" s="391"/>
       <c r="Y47" s="9" t="s">
         <v>2</v>
       </c>
@@ -9208,10 +9208,10 @@
         <v>53</v>
       </c>
       <c r="AB47" s="295" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC47" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD47" s="299"/>
       <c r="AE47" s="294" t="s">
@@ -9221,10 +9221,10 @@
         <v>53</v>
       </c>
       <c r="AG47" s="295" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH47" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI47" s="299"/>
       <c r="AJ47" s="288" t="s">
@@ -9237,13 +9237,13 @@
         <v>82</v>
       </c>
       <c r="AM47" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN47" s="201"/>
-      <c r="AO47" s="388"/>
-      <c r="AP47" s="375"/>
-      <c r="AQ47" s="377"/>
-      <c r="AR47" s="377"/>
+      <c r="AO47" s="402"/>
+      <c r="AP47" s="389"/>
+      <c r="AQ47" s="391"/>
+      <c r="AR47" s="391"/>
       <c r="AS47" s="9" t="s">
         <v>2</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>82</v>
       </c>
       <c r="AW47" s="284" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX47" s="299"/>
       <c r="AY47" s="288" t="s">
@@ -9270,7 +9270,7 @@
         <v>82</v>
       </c>
       <c r="BB47" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BC47" s="201"/>
       <c r="BD47" s="288" t="s">
@@ -9283,20 +9283,20 @@
         <v>82</v>
       </c>
       <c r="BG47" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH47" s="201"/>
       <c r="BI47" s="40"/>
     </row>
     <row r="48" spans="1:61" ht="30" customHeight="1">
-      <c r="A48" s="388"/>
-      <c r="B48" s="374">
+      <c r="A48" s="402"/>
+      <c r="B48" s="392">
         <v>5</v>
       </c>
-      <c r="C48" s="376" t="s">
+      <c r="C48" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="376" t="s">
+      <c r="D48" s="393" t="s">
         <v>60</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -9317,14 +9317,14 @@
       <c r="R48" s="339"/>
       <c r="S48" s="336"/>
       <c r="T48" s="266"/>
-      <c r="U48" s="388"/>
-      <c r="V48" s="374">
+      <c r="U48" s="402"/>
+      <c r="V48" s="392">
         <v>5</v>
       </c>
-      <c r="W48" s="376" t="s">
+      <c r="W48" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="X48" s="376" t="s">
+      <c r="X48" s="393" t="s">
         <v>60</v>
       </c>
       <c r="Y48" s="9" t="s">
@@ -9345,14 +9345,14 @@
       <c r="AL48" s="121"/>
       <c r="AM48" s="120"/>
       <c r="AN48" s="202"/>
-      <c r="AO48" s="388"/>
-      <c r="AP48" s="374">
+      <c r="AO48" s="402"/>
+      <c r="AP48" s="392">
         <v>5</v>
       </c>
-      <c r="AQ48" s="376" t="s">
+      <c r="AQ48" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="AR48" s="376" t="s">
+      <c r="AR48" s="393" t="s">
         <v>60</v>
       </c>
       <c r="AS48" s="9" t="s">
@@ -9392,10 +9392,10 @@
       <c r="BI48" s="40"/>
     </row>
     <row r="49" spans="1:61" ht="30" customHeight="1">
-      <c r="A49" s="388"/>
-      <c r="B49" s="375"/>
-      <c r="C49" s="377"/>
-      <c r="D49" s="377"/>
+      <c r="A49" s="402"/>
+      <c r="B49" s="389"/>
+      <c r="C49" s="391"/>
+      <c r="D49" s="391"/>
       <c r="E49" s="9" t="s">
         <v>2</v>
       </c>
@@ -9414,10 +9414,10 @@
       <c r="R49" s="339"/>
       <c r="S49" s="336"/>
       <c r="T49" s="226"/>
-      <c r="U49" s="388"/>
-      <c r="V49" s="375"/>
-      <c r="W49" s="377"/>
-      <c r="X49" s="377"/>
+      <c r="U49" s="402"/>
+      <c r="V49" s="389"/>
+      <c r="W49" s="391"/>
+      <c r="X49" s="391"/>
       <c r="Y49" s="9" t="s">
         <v>2</v>
       </c>
@@ -9436,10 +9436,10 @@
       <c r="AL49" s="122"/>
       <c r="AM49" s="120"/>
       <c r="AN49" s="112"/>
-      <c r="AO49" s="388"/>
-      <c r="AP49" s="375"/>
-      <c r="AQ49" s="377"/>
-      <c r="AR49" s="377"/>
+      <c r="AO49" s="402"/>
+      <c r="AP49" s="389"/>
+      <c r="AQ49" s="391"/>
+      <c r="AR49" s="391"/>
       <c r="AS49" s="9" t="s">
         <v>2</v>
       </c>
@@ -9461,14 +9461,14 @@
       <c r="BI49" s="40"/>
     </row>
     <row r="50" spans="1:61" ht="30" customHeight="1">
-      <c r="A50" s="388"/>
-      <c r="B50" s="378">
+      <c r="A50" s="402"/>
+      <c r="B50" s="395">
         <v>6</v>
       </c>
-      <c r="C50" s="380" t="s">
+      <c r="C50" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="380" t="s">
+      <c r="D50" s="394" t="s">
         <v>61</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -9489,14 +9489,14 @@
       <c r="R50" s="339"/>
       <c r="S50" s="336"/>
       <c r="T50" s="264"/>
-      <c r="U50" s="388"/>
-      <c r="V50" s="378">
+      <c r="U50" s="402"/>
+      <c r="V50" s="395">
         <v>6</v>
       </c>
-      <c r="W50" s="380" t="s">
+      <c r="W50" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="X50" s="380" t="s">
+      <c r="X50" s="394" t="s">
         <v>61</v>
       </c>
       <c r="Y50" s="9" t="s">
@@ -9517,14 +9517,14 @@
       <c r="AL50" s="106"/>
       <c r="AM50" s="112"/>
       <c r="AN50" s="200"/>
-      <c r="AO50" s="388"/>
-      <c r="AP50" s="378">
+      <c r="AO50" s="402"/>
+      <c r="AP50" s="395">
         <v>6</v>
       </c>
-      <c r="AQ50" s="380" t="s">
+      <c r="AQ50" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="AR50" s="380" t="s">
+      <c r="AR50" s="394" t="s">
         <v>61</v>
       </c>
       <c r="AS50" s="9" t="s">
@@ -9548,10 +9548,10 @@
       <c r="BI50" s="40"/>
     </row>
     <row r="51" spans="1:61" ht="30" customHeight="1" thickBot="1">
-      <c r="A51" s="389"/>
-      <c r="B51" s="379"/>
-      <c r="C51" s="381"/>
-      <c r="D51" s="381"/>
+      <c r="A51" s="403"/>
+      <c r="B51" s="396"/>
+      <c r="C51" s="397"/>
+      <c r="D51" s="397"/>
       <c r="E51" s="4" t="s">
         <v>2</v>
       </c>
@@ -9570,10 +9570,10 @@
       <c r="R51" s="212"/>
       <c r="S51" s="213"/>
       <c r="T51" s="267"/>
-      <c r="U51" s="389"/>
-      <c r="V51" s="379"/>
-      <c r="W51" s="381"/>
-      <c r="X51" s="381"/>
+      <c r="U51" s="403"/>
+      <c r="V51" s="396"/>
+      <c r="W51" s="397"/>
+      <c r="X51" s="397"/>
       <c r="Y51" s="4" t="s">
         <v>2</v>
       </c>
@@ -9592,10 +9592,10 @@
       <c r="AL51" s="131"/>
       <c r="AM51" s="133"/>
       <c r="AN51" s="203"/>
-      <c r="AO51" s="389"/>
-      <c r="AP51" s="379"/>
-      <c r="AQ51" s="381"/>
-      <c r="AR51" s="381"/>
+      <c r="AO51" s="403"/>
+      <c r="AP51" s="396"/>
+      <c r="AQ51" s="397"/>
+      <c r="AR51" s="397"/>
       <c r="AS51" s="4" t="s">
         <v>2</v>
       </c>
@@ -9617,16 +9617,16 @@
       <c r="BI51" s="40"/>
     </row>
     <row r="52" spans="1:61" ht="30" customHeight="1">
-      <c r="A52" s="383" t="s">
+      <c r="A52" s="426" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="386">
+      <c r="B52" s="388">
         <v>1</v>
       </c>
-      <c r="C52" s="382" t="s">
+      <c r="C52" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="382" t="s">
+      <c r="D52" s="390" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -9647,16 +9647,16 @@
       <c r="R52" s="223"/>
       <c r="S52" s="224"/>
       <c r="T52" s="268"/>
-      <c r="U52" s="419" t="s">
+      <c r="U52" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="V52" s="386">
+      <c r="V52" s="388">
         <v>1</v>
       </c>
-      <c r="W52" s="382" t="s">
+      <c r="W52" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="X52" s="382" t="s">
+      <c r="X52" s="390" t="s">
         <v>27</v>
       </c>
       <c r="Y52" s="7" t="s">
@@ -9692,25 +9692,25 @@
         <v>117</v>
       </c>
       <c r="AK52" s="354" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL52" s="355" t="s">
         <v>178</v>
       </c>
-      <c r="AL52" s="355" t="s">
+      <c r="AM52" s="356" t="s">
         <v>179</v>
       </c>
-      <c r="AM52" s="356" t="s">
-        <v>180</v>
-      </c>
       <c r="AN52" s="204"/>
-      <c r="AO52" s="383" t="s">
+      <c r="AO52" s="426" t="s">
         <v>9</v>
       </c>
-      <c r="AP52" s="386">
+      <c r="AP52" s="388">
         <v>1</v>
       </c>
-      <c r="AQ52" s="382" t="s">
+      <c r="AQ52" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="AR52" s="382" t="s">
+      <c r="AR52" s="390" t="s">
         <v>27</v>
       </c>
       <c r="AS52" s="7" t="s">
@@ -9740,15 +9740,15 @@
       <c r="BI52" s="40"/>
     </row>
     <row r="53" spans="1:61" ht="30" customHeight="1">
-      <c r="A53" s="384"/>
-      <c r="B53" s="375"/>
-      <c r="C53" s="377"/>
-      <c r="D53" s="377"/>
+      <c r="A53" s="427"/>
+      <c r="B53" s="389"/>
+      <c r="C53" s="391"/>
+      <c r="D53" s="391"/>
       <c r="E53" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="335" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G53" s="332" t="s">
         <v>49</v>
@@ -9770,10 +9770,10 @@
       <c r="R53" s="229"/>
       <c r="S53" s="230"/>
       <c r="T53" s="268"/>
-      <c r="U53" s="420"/>
-      <c r="V53" s="375"/>
-      <c r="W53" s="377"/>
-      <c r="X53" s="377"/>
+      <c r="U53" s="399"/>
+      <c r="V53" s="389"/>
+      <c r="W53" s="391"/>
+      <c r="X53" s="391"/>
       <c r="Y53" s="8" t="s">
         <v>2</v>
       </c>
@@ -9791,19 +9791,19 @@
         <v>117</v>
       </c>
       <c r="AK53" s="358" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL53" s="359" t="s">
         <v>178</v>
       </c>
-      <c r="AL53" s="359" t="s">
+      <c r="AM53" s="360" t="s">
         <v>179</v>
       </c>
-      <c r="AM53" s="360" t="s">
-        <v>180</v>
-      </c>
       <c r="AN53" s="204"/>
-      <c r="AO53" s="384"/>
-      <c r="AP53" s="375"/>
-      <c r="AQ53" s="377"/>
-      <c r="AR53" s="377"/>
+      <c r="AO53" s="427"/>
+      <c r="AP53" s="389"/>
+      <c r="AQ53" s="391"/>
+      <c r="AR53" s="391"/>
       <c r="AS53" s="8" t="s">
         <v>2</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>123</v>
       </c>
       <c r="BB53" s="344" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BC53" s="204"/>
       <c r="BD53" s="319" t="s">
@@ -9847,14 +9847,14 @@
       <c r="BI53" s="40"/>
     </row>
     <row r="54" spans="1:61" ht="30" customHeight="1">
-      <c r="A54" s="384"/>
-      <c r="B54" s="374">
+      <c r="A54" s="427"/>
+      <c r="B54" s="392">
         <v>2</v>
       </c>
-      <c r="C54" s="376" t="s">
+      <c r="C54" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="376" t="s">
+      <c r="D54" s="393" t="s">
         <v>29</v>
       </c>
       <c r="E54" s="9" t="s">
@@ -9895,14 +9895,14 @@
         <v>91</v>
       </c>
       <c r="T54" s="261"/>
-      <c r="U54" s="420"/>
-      <c r="V54" s="374">
+      <c r="U54" s="399"/>
+      <c r="V54" s="392">
         <v>2</v>
       </c>
-      <c r="W54" s="376" t="s">
+      <c r="W54" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="X54" s="376" t="s">
+      <c r="X54" s="393" t="s">
         <v>29</v>
       </c>
       <c r="Y54" s="9" t="s">
@@ -9938,23 +9938,23 @@
         <v>117</v>
       </c>
       <c r="AK54" s="358" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL54" s="359" t="s">
         <v>178</v>
       </c>
-      <c r="AL54" s="359" t="s">
+      <c r="AM54" s="360" t="s">
         <v>179</v>
       </c>
-      <c r="AM54" s="360" t="s">
-        <v>180</v>
-      </c>
       <c r="AN54" s="197"/>
-      <c r="AO54" s="384"/>
-      <c r="AP54" s="374">
+      <c r="AO54" s="427"/>
+      <c r="AP54" s="392">
         <v>2</v>
       </c>
-      <c r="AQ54" s="376" t="s">
+      <c r="AQ54" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="AR54" s="376" t="s">
+      <c r="AR54" s="393" t="s">
         <v>29</v>
       </c>
       <c r="AS54" s="9" t="s">
@@ -9984,10 +9984,10 @@
       <c r="BI54" s="40"/>
     </row>
     <row r="55" spans="1:61" ht="30" customHeight="1">
-      <c r="A55" s="384"/>
-      <c r="B55" s="375"/>
-      <c r="C55" s="377"/>
-      <c r="D55" s="377"/>
+      <c r="A55" s="427"/>
+      <c r="B55" s="389"/>
+      <c r="C55" s="391"/>
+      <c r="D55" s="391"/>
       <c r="E55" s="8" t="s">
         <v>2</v>
       </c>
@@ -10026,10 +10026,10 @@
         <v>91</v>
       </c>
       <c r="T55" s="261"/>
-      <c r="U55" s="420"/>
-      <c r="V55" s="375"/>
-      <c r="W55" s="377"/>
-      <c r="X55" s="377"/>
+      <c r="U55" s="399"/>
+      <c r="V55" s="389"/>
+      <c r="W55" s="391"/>
+      <c r="X55" s="391"/>
       <c r="Y55" s="9" t="s">
         <v>2</v>
       </c>
@@ -10050,16 +10050,16 @@
         <v>49</v>
       </c>
       <c r="AL55" s="359" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM55" s="361" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN55" s="197"/>
-      <c r="AO55" s="384"/>
-      <c r="AP55" s="375"/>
-      <c r="AQ55" s="377"/>
-      <c r="AR55" s="377"/>
+      <c r="AO55" s="427"/>
+      <c r="AP55" s="389"/>
+      <c r="AQ55" s="391"/>
+      <c r="AR55" s="391"/>
       <c r="AS55" s="9" t="s">
         <v>2</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>123</v>
       </c>
       <c r="BB55" s="344" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BC55" s="197"/>
       <c r="BD55" s="319" t="s">
@@ -10103,14 +10103,14 @@
       <c r="BI55" s="40"/>
     </row>
     <row r="56" spans="1:61" ht="30" customHeight="1">
-      <c r="A56" s="384"/>
-      <c r="B56" s="374">
+      <c r="A56" s="427"/>
+      <c r="B56" s="392">
         <v>3</v>
       </c>
-      <c r="C56" s="376" t="s">
+      <c r="C56" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="376" t="s">
+      <c r="D56" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E56" s="9" t="s">
@@ -10149,14 +10149,14 @@
         <v>50</v>
       </c>
       <c r="T56" s="269"/>
-      <c r="U56" s="420"/>
-      <c r="V56" s="374">
+      <c r="U56" s="399"/>
+      <c r="V56" s="392">
         <v>3</v>
       </c>
-      <c r="W56" s="376" t="s">
+      <c r="W56" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="X56" s="376" t="s">
+      <c r="X56" s="393" t="s">
         <v>57</v>
       </c>
       <c r="Y56" s="9" t="s">
@@ -10188,23 +10188,23 @@
         <v>117</v>
       </c>
       <c r="AK56" s="358" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL56" s="359" t="s">
         <v>182</v>
       </c>
-      <c r="AL56" s="359" t="s">
-        <v>183</v>
-      </c>
       <c r="AM56" s="361" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN56" s="205"/>
-      <c r="AO56" s="384"/>
-      <c r="AP56" s="374">
+      <c r="AO56" s="427"/>
+      <c r="AP56" s="392">
         <v>3</v>
       </c>
-      <c r="AQ56" s="376" t="s">
+      <c r="AQ56" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="AR56" s="376" t="s">
+      <c r="AR56" s="393" t="s">
         <v>57</v>
       </c>
       <c r="AS56" s="9" t="s">
@@ -10244,10 +10244,10 @@
       <c r="BI56" s="40"/>
     </row>
     <row r="57" spans="1:61" ht="30" customHeight="1">
-      <c r="A57" s="384"/>
-      <c r="B57" s="375"/>
-      <c r="C57" s="380"/>
-      <c r="D57" s="380"/>
+      <c r="A57" s="427"/>
+      <c r="B57" s="389"/>
+      <c r="C57" s="394"/>
+      <c r="D57" s="394"/>
       <c r="E57" s="9" t="s">
         <v>2</v>
       </c>
@@ -10284,10 +10284,10 @@
         <v>50</v>
       </c>
       <c r="T57" s="226"/>
-      <c r="U57" s="420"/>
-      <c r="V57" s="375"/>
-      <c r="W57" s="380"/>
-      <c r="X57" s="380"/>
+      <c r="U57" s="399"/>
+      <c r="V57" s="389"/>
+      <c r="W57" s="394"/>
+      <c r="X57" s="394"/>
       <c r="Y57" s="9" t="s">
         <v>2</v>
       </c>
@@ -10317,19 +10317,19 @@
         <v>117</v>
       </c>
       <c r="AK57" s="358" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL57" s="359" t="s">
         <v>182</v>
       </c>
-      <c r="AL57" s="359" t="s">
-        <v>183</v>
-      </c>
       <c r="AM57" s="361" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN57" s="112"/>
-      <c r="AO57" s="384"/>
-      <c r="AP57" s="375"/>
-      <c r="AQ57" s="380"/>
-      <c r="AR57" s="380"/>
+      <c r="AO57" s="427"/>
+      <c r="AP57" s="389"/>
+      <c r="AQ57" s="394"/>
+      <c r="AR57" s="394"/>
       <c r="AS57" s="9" t="s">
         <v>2</v>
       </c>
@@ -10353,20 +10353,20 @@
         <v>123</v>
       </c>
       <c r="BG57" s="344" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BH57" s="112"/>
       <c r="BI57" s="40"/>
     </row>
     <row r="58" spans="1:61" ht="30" customHeight="1">
-      <c r="A58" s="384"/>
-      <c r="B58" s="374">
+      <c r="A58" s="427"/>
+      <c r="B58" s="392">
         <v>4</v>
       </c>
-      <c r="C58" s="376" t="s">
+      <c r="C58" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="376" t="s">
+      <c r="D58" s="393" t="s">
         <v>59</v>
       </c>
       <c r="E58" s="9" t="s">
@@ -10393,14 +10393,14 @@
       <c r="R58" s="216"/>
       <c r="S58" s="271"/>
       <c r="T58" s="269"/>
-      <c r="U58" s="420"/>
-      <c r="V58" s="374">
+      <c r="U58" s="399"/>
+      <c r="V58" s="392">
         <v>4</v>
       </c>
-      <c r="W58" s="376" t="s">
+      <c r="W58" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="X58" s="376" t="s">
+      <c r="X58" s="393" t="s">
         <v>59</v>
       </c>
       <c r="Y58" s="9" t="s">
@@ -10433,14 +10433,14 @@
       <c r="AL58" s="315"/>
       <c r="AM58" s="181"/>
       <c r="AN58" s="205"/>
-      <c r="AO58" s="384"/>
-      <c r="AP58" s="374">
+      <c r="AO58" s="427"/>
+      <c r="AP58" s="392">
         <v>4</v>
       </c>
-      <c r="AQ58" s="376" t="s">
+      <c r="AQ58" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="AR58" s="376" t="s">
+      <c r="AR58" s="393" t="s">
         <v>59</v>
       </c>
       <c r="AS58" s="9" t="s">
@@ -10484,10 +10484,10 @@
       <c r="BI58" s="40"/>
     </row>
     <row r="59" spans="1:61" ht="30" customHeight="1">
-      <c r="A59" s="384"/>
-      <c r="B59" s="375"/>
-      <c r="C59" s="377"/>
-      <c r="D59" s="377"/>
+      <c r="A59" s="427"/>
+      <c r="B59" s="389"/>
+      <c r="C59" s="391"/>
+      <c r="D59" s="391"/>
       <c r="E59" s="9" t="s">
         <v>2</v>
       </c>
@@ -10512,10 +10512,10 @@
       <c r="R59" s="229"/>
       <c r="S59" s="284"/>
       <c r="T59" s="226"/>
-      <c r="U59" s="420"/>
-      <c r="V59" s="375"/>
-      <c r="W59" s="377"/>
-      <c r="X59" s="377"/>
+      <c r="U59" s="399"/>
+      <c r="V59" s="389"/>
+      <c r="W59" s="391"/>
+      <c r="X59" s="391"/>
       <c r="Y59" s="9" t="s">
         <v>2</v>
       </c>
@@ -10546,10 +10546,10 @@
       <c r="AL59" s="216"/>
       <c r="AM59" s="316"/>
       <c r="AN59" s="112"/>
-      <c r="AO59" s="384"/>
-      <c r="AP59" s="375"/>
-      <c r="AQ59" s="377"/>
-      <c r="AR59" s="377"/>
+      <c r="AO59" s="427"/>
+      <c r="AP59" s="389"/>
+      <c r="AQ59" s="391"/>
+      <c r="AR59" s="391"/>
       <c r="AS59" s="9" t="s">
         <v>2</v>
       </c>
@@ -10577,20 +10577,20 @@
         <v>123</v>
       </c>
       <c r="BG59" s="344" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BH59" s="112"/>
       <c r="BI59" s="40"/>
     </row>
     <row r="60" spans="1:61" ht="30" customHeight="1">
-      <c r="A60" s="384"/>
-      <c r="B60" s="374">
+      <c r="A60" s="427"/>
+      <c r="B60" s="392">
         <v>5</v>
       </c>
-      <c r="C60" s="376" t="s">
+      <c r="C60" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="376" t="s">
+      <c r="D60" s="393" t="s">
         <v>60</v>
       </c>
       <c r="E60" s="9" t="s">
@@ -10611,14 +10611,14 @@
       <c r="R60" s="237"/>
       <c r="S60" s="236"/>
       <c r="T60" s="226"/>
-      <c r="U60" s="420"/>
-      <c r="V60" s="374">
+      <c r="U60" s="399"/>
+      <c r="V60" s="392">
         <v>5</v>
       </c>
-      <c r="W60" s="376" t="s">
+      <c r="W60" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="X60" s="376" t="s">
+      <c r="X60" s="393" t="s">
         <v>60</v>
       </c>
       <c r="Y60" s="9" t="s">
@@ -10651,14 +10651,14 @@
       <c r="AL60" s="339"/>
       <c r="AM60" s="77"/>
       <c r="AN60" s="112"/>
-      <c r="AO60" s="384"/>
-      <c r="AP60" s="374">
+      <c r="AO60" s="427"/>
+      <c r="AP60" s="392">
         <v>5</v>
       </c>
-      <c r="AQ60" s="376" t="s">
+      <c r="AQ60" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="AR60" s="376" t="s">
+      <c r="AR60" s="393" t="s">
         <v>60</v>
       </c>
       <c r="AS60" s="9" t="s">
@@ -10686,10 +10686,10 @@
       <c r="BI60" s="40"/>
     </row>
     <row r="61" spans="1:61" ht="30" customHeight="1">
-      <c r="A61" s="384"/>
-      <c r="B61" s="375"/>
-      <c r="C61" s="377"/>
-      <c r="D61" s="377"/>
+      <c r="A61" s="427"/>
+      <c r="B61" s="389"/>
+      <c r="C61" s="391"/>
+      <c r="D61" s="391"/>
       <c r="E61" s="9" t="s">
         <v>2</v>
       </c>
@@ -10708,10 +10708,10 @@
       <c r="R61" s="229"/>
       <c r="S61" s="225"/>
       <c r="T61" s="226"/>
-      <c r="U61" s="420"/>
-      <c r="V61" s="375"/>
-      <c r="W61" s="377"/>
-      <c r="X61" s="377"/>
+      <c r="U61" s="399"/>
+      <c r="V61" s="389"/>
+      <c r="W61" s="391"/>
+      <c r="X61" s="391"/>
       <c r="Y61" s="9" t="s">
         <v>2</v>
       </c>
@@ -10742,10 +10742,10 @@
       <c r="AL61" s="216"/>
       <c r="AM61" s="316"/>
       <c r="AN61" s="112"/>
-      <c r="AO61" s="384"/>
-      <c r="AP61" s="375"/>
-      <c r="AQ61" s="377"/>
-      <c r="AR61" s="377"/>
+      <c r="AO61" s="427"/>
+      <c r="AP61" s="389"/>
+      <c r="AQ61" s="391"/>
+      <c r="AR61" s="391"/>
       <c r="AS61" s="9" t="s">
         <v>2</v>
       </c>
@@ -10771,14 +10771,14 @@
       <c r="BI61" s="40"/>
     </row>
     <row r="62" spans="1:61" ht="30" customHeight="1">
-      <c r="A62" s="384"/>
-      <c r="B62" s="378">
+      <c r="A62" s="427"/>
+      <c r="B62" s="395">
         <v>6</v>
       </c>
-      <c r="C62" s="380" t="s">
+      <c r="C62" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="D62" s="380" t="s">
+      <c r="D62" s="394" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -10799,14 +10799,14 @@
       <c r="R62" s="237"/>
       <c r="S62" s="240"/>
       <c r="T62" s="245"/>
-      <c r="U62" s="420"/>
-      <c r="V62" s="378">
+      <c r="U62" s="399"/>
+      <c r="V62" s="395">
         <v>6</v>
       </c>
-      <c r="W62" s="380" t="s">
+      <c r="W62" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="X62" s="380" t="s">
+      <c r="X62" s="394" t="s">
         <v>61</v>
       </c>
       <c r="Y62" s="9" t="s">
@@ -10827,14 +10827,14 @@
       <c r="AL62" s="106"/>
       <c r="AM62" s="110"/>
       <c r="AN62" s="144"/>
-      <c r="AO62" s="384"/>
-      <c r="AP62" s="378">
+      <c r="AO62" s="427"/>
+      <c r="AP62" s="395">
         <v>6</v>
       </c>
-      <c r="AQ62" s="380" t="s">
+      <c r="AQ62" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="AR62" s="380" t="s">
+      <c r="AR62" s="394" t="s">
         <v>61</v>
       </c>
       <c r="AS62" s="9" t="s">
@@ -10862,10 +10862,10 @@
       <c r="BI62" s="40"/>
     </row>
     <row r="63" spans="1:61" ht="30" customHeight="1" thickBot="1">
-      <c r="A63" s="385"/>
-      <c r="B63" s="379"/>
-      <c r="C63" s="381"/>
-      <c r="D63" s="381"/>
+      <c r="A63" s="428"/>
+      <c r="B63" s="396"/>
+      <c r="C63" s="397"/>
+      <c r="D63" s="397"/>
       <c r="E63" s="4" t="s">
         <v>2</v>
       </c>
@@ -10884,10 +10884,10 @@
       <c r="R63" s="220"/>
       <c r="S63" s="239"/>
       <c r="T63" s="227"/>
-      <c r="U63" s="421"/>
-      <c r="V63" s="379"/>
-      <c r="W63" s="381"/>
-      <c r="X63" s="381"/>
+      <c r="U63" s="400"/>
+      <c r="V63" s="396"/>
+      <c r="W63" s="397"/>
+      <c r="X63" s="397"/>
       <c r="Y63" s="4" t="s">
         <v>2</v>
       </c>
@@ -10906,10 +10906,10 @@
       <c r="AL63" s="58"/>
       <c r="AM63" s="78"/>
       <c r="AN63" s="78"/>
-      <c r="AO63" s="385"/>
-      <c r="AP63" s="379"/>
-      <c r="AQ63" s="381"/>
-      <c r="AR63" s="381"/>
+      <c r="AO63" s="428"/>
+      <c r="AP63" s="396"/>
+      <c r="AQ63" s="397"/>
+      <c r="AR63" s="397"/>
       <c r="AS63" s="4" t="s">
         <v>2</v>
       </c>
@@ -10935,16 +10935,16 @@
       <c r="BI63" s="40"/>
     </row>
     <row r="64" spans="1:61" ht="30" customHeight="1">
-      <c r="A64" s="416" t="s">
+      <c r="A64" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="386">
+      <c r="B64" s="388">
         <v>1</v>
       </c>
-      <c r="C64" s="382" t="s">
+      <c r="C64" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="382" t="s">
+      <c r="D64" s="390" t="s">
         <v>27</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -10956,7 +10956,7 @@
       <c r="I64" s="344"/>
       <c r="J64" s="112"/>
       <c r="K64" s="342" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L64" s="290" t="s">
         <v>51</v>
@@ -10965,11 +10965,11 @@
         <v>100</v>
       </c>
       <c r="N64" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O64" s="285"/>
       <c r="P64" s="342" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q64" s="290" t="s">
         <v>51</v>
@@ -10978,26 +10978,26 @@
         <v>100</v>
       </c>
       <c r="S64" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T64" s="112"/>
-      <c r="U64" s="416" t="s">
+      <c r="U64" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="V64" s="386">
+      <c r="V64" s="388">
         <v>1</v>
       </c>
-      <c r="W64" s="382" t="s">
+      <c r="W64" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="X64" s="382" t="s">
+      <c r="X64" s="390" t="s">
         <v>27</v>
       </c>
       <c r="Y64" s="7" t="s">
         <v>1</v>
       </c>
       <c r="Z64" s="342" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA64" s="290" t="s">
         <v>51</v>
@@ -11006,11 +11006,11 @@
         <v>100</v>
       </c>
       <c r="AC64" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD64" s="274"/>
       <c r="AE64" s="342" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF64" s="290" t="s">
         <v>51</v>
@@ -11019,7 +11019,7 @@
         <v>100</v>
       </c>
       <c r="AH64" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI64" s="274"/>
       <c r="AJ64" s="289" t="s">
@@ -11031,16 +11031,16 @@
         <v>50</v>
       </c>
       <c r="AN64" s="112"/>
-      <c r="AO64" s="416" t="s">
+      <c r="AO64" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="AP64" s="386">
+      <c r="AP64" s="388">
         <v>1</v>
       </c>
-      <c r="AQ64" s="382" t="s">
+      <c r="AQ64" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="AR64" s="382" t="s">
+      <c r="AR64" s="390" t="s">
         <v>27</v>
       </c>
       <c r="AS64" s="7" t="s">
@@ -11062,10 +11062,10 @@
         <v>53</v>
       </c>
       <c r="BA64" s="295" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BB64" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BC64" s="112"/>
       <c r="BD64" s="294" t="s">
@@ -11075,37 +11075,37 @@
         <v>53</v>
       </c>
       <c r="BF64" s="295" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BG64" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BH64" s="112"/>
       <c r="BI64" s="40"/>
     </row>
     <row r="65" spans="1:61" ht="30" customHeight="1">
-      <c r="A65" s="417"/>
-      <c r="B65" s="375"/>
-      <c r="C65" s="377"/>
-      <c r="D65" s="377"/>
+      <c r="A65" s="386"/>
+      <c r="B65" s="389"/>
+      <c r="C65" s="391"/>
+      <c r="D65" s="391"/>
       <c r="E65" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="337" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G65" s="343" t="s">
         <v>51</v>
       </c>
       <c r="H65" s="286" t="s">
+        <v>139</v>
+      </c>
+      <c r="I65" s="344" t="s">
         <v>140</v>
-      </c>
-      <c r="I65" s="344" t="s">
-        <v>141</v>
       </c>
       <c r="J65" s="196"/>
       <c r="K65" s="342" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L65" s="290" t="s">
         <v>49</v>
@@ -11114,11 +11114,11 @@
         <v>113</v>
       </c>
       <c r="N65" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O65" s="269"/>
       <c r="P65" s="342" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q65" s="290" t="s">
         <v>49</v>
@@ -11127,13 +11127,13 @@
         <v>113</v>
       </c>
       <c r="S65" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T65" s="196"/>
-      <c r="U65" s="417"/>
-      <c r="V65" s="375"/>
-      <c r="W65" s="377"/>
-      <c r="X65" s="377"/>
+      <c r="U65" s="386"/>
+      <c r="V65" s="389"/>
+      <c r="W65" s="391"/>
+      <c r="X65" s="391"/>
       <c r="Y65" s="8" t="s">
         <v>2</v>
       </c>
@@ -11157,13 +11157,13 @@
         <v>87</v>
       </c>
       <c r="AM65" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN65" s="196"/>
-      <c r="AO65" s="417"/>
-      <c r="AP65" s="375"/>
-      <c r="AQ65" s="377"/>
-      <c r="AR65" s="377"/>
+      <c r="AO65" s="386"/>
+      <c r="AP65" s="389"/>
+      <c r="AQ65" s="391"/>
+      <c r="AR65" s="391"/>
       <c r="AS65" s="8" t="s">
         <v>2</v>
       </c>
@@ -11177,20 +11177,20 @@
         <v>87</v>
       </c>
       <c r="AW65" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX65" s="196"/>
       <c r="AY65" s="370" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ65" s="371" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA65" s="372" t="s">
         <v>212</v>
       </c>
-      <c r="AZ65" s="371" t="s">
+      <c r="BB65" s="373" t="s">
         <v>213</v>
-      </c>
-      <c r="BA65" s="372" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB65" s="373" t="s">
-        <v>215</v>
       </c>
       <c r="BC65" s="196"/>
       <c r="BD65" s="288" t="s">
@@ -11203,20 +11203,20 @@
         <v>87</v>
       </c>
       <c r="BG65" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH65" s="196"/>
       <c r="BI65" s="40"/>
     </row>
     <row r="66" spans="1:61" ht="30" customHeight="1">
-      <c r="A66" s="417"/>
-      <c r="B66" s="374">
+      <c r="A66" s="386"/>
+      <c r="B66" s="392">
         <v>2</v>
       </c>
-      <c r="C66" s="376" t="s">
+      <c r="C66" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="376" t="s">
+      <c r="D66" s="393" t="s">
         <v>29</v>
       </c>
       <c r="E66" s="9" t="s">
@@ -11228,7 +11228,7 @@
       <c r="I66" s="344"/>
       <c r="J66" s="112"/>
       <c r="K66" s="342" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L66" s="290" t="s">
         <v>51</v>
@@ -11237,11 +11237,11 @@
         <v>100</v>
       </c>
       <c r="N66" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O66" s="285"/>
       <c r="P66" s="342" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q66" s="290" t="s">
         <v>51</v>
@@ -11250,24 +11250,24 @@
         <v>100</v>
       </c>
       <c r="S66" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T66" s="112"/>
-      <c r="U66" s="417"/>
-      <c r="V66" s="374">
+      <c r="U66" s="386"/>
+      <c r="V66" s="392">
         <v>2</v>
       </c>
-      <c r="W66" s="376" t="s">
+      <c r="W66" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="X66" s="376" t="s">
+      <c r="X66" s="393" t="s">
         <v>29</v>
       </c>
       <c r="Y66" s="9" t="s">
         <v>1</v>
       </c>
       <c r="Z66" s="342" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA66" s="290" t="s">
         <v>51</v>
@@ -11276,11 +11276,11 @@
         <v>100</v>
       </c>
       <c r="AC66" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD66" s="274"/>
       <c r="AE66" s="342" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF66" s="290" t="s">
         <v>51</v>
@@ -11289,7 +11289,7 @@
         <v>100</v>
       </c>
       <c r="AH66" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI66" s="274"/>
       <c r="AJ66" s="289" t="s">
@@ -11301,14 +11301,14 @@
         <v>50</v>
       </c>
       <c r="AN66" s="112"/>
-      <c r="AO66" s="417"/>
-      <c r="AP66" s="374">
+      <c r="AO66" s="386"/>
+      <c r="AP66" s="392">
         <v>2</v>
       </c>
-      <c r="AQ66" s="376" t="s">
+      <c r="AQ66" s="393" t="s">
         <v>28</v>
       </c>
-      <c r="AR66" s="376" t="s">
+      <c r="AR66" s="393" t="s">
         <v>29</v>
       </c>
       <c r="AS66" s="9" t="s">
@@ -11330,10 +11330,10 @@
         <v>53</v>
       </c>
       <c r="BA66" s="295" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BB66" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BC66" s="112"/>
       <c r="BD66" s="294" t="s">
@@ -11343,37 +11343,37 @@
         <v>53</v>
       </c>
       <c r="BF66" s="295" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BG66" s="344" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BH66" s="112"/>
       <c r="BI66" s="40"/>
     </row>
     <row r="67" spans="1:61" ht="30" customHeight="1">
-      <c r="A67" s="417"/>
-      <c r="B67" s="375"/>
-      <c r="C67" s="377"/>
-      <c r="D67" s="377"/>
+      <c r="A67" s="386"/>
+      <c r="B67" s="389"/>
+      <c r="C67" s="391"/>
+      <c r="D67" s="391"/>
       <c r="E67" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="337" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" s="286" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="286" t="s">
         <v>139</v>
       </c>
-      <c r="G67" s="286" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="286" t="s">
+      <c r="I67" s="344" t="s">
         <v>140</v>
-      </c>
-      <c r="I67" s="344" t="s">
-        <v>141</v>
       </c>
       <c r="J67" s="196"/>
       <c r="K67" s="342" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L67" s="290" t="s">
         <v>49</v>
@@ -11382,11 +11382,11 @@
         <v>113</v>
       </c>
       <c r="N67" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O67" s="283"/>
       <c r="P67" s="342" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q67" s="290" t="s">
         <v>49</v>
@@ -11395,13 +11395,13 @@
         <v>113</v>
       </c>
       <c r="S67" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T67" s="196"/>
-      <c r="U67" s="417"/>
-      <c r="V67" s="375"/>
-      <c r="W67" s="377"/>
-      <c r="X67" s="377"/>
+      <c r="U67" s="386"/>
+      <c r="V67" s="389"/>
+      <c r="W67" s="391"/>
+      <c r="X67" s="391"/>
       <c r="Y67" s="9" t="s">
         <v>2</v>
       </c>
@@ -11425,13 +11425,13 @@
         <v>87</v>
       </c>
       <c r="AM67" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN67" s="196"/>
-      <c r="AO67" s="417"/>
-      <c r="AP67" s="375"/>
-      <c r="AQ67" s="377"/>
-      <c r="AR67" s="377"/>
+      <c r="AO67" s="386"/>
+      <c r="AP67" s="389"/>
+      <c r="AQ67" s="391"/>
+      <c r="AR67" s="391"/>
       <c r="AS67" s="9" t="s">
         <v>2</v>
       </c>
@@ -11445,20 +11445,20 @@
         <v>87</v>
       </c>
       <c r="AW67" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX67" s="196"/>
       <c r="AY67" s="370" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ67" s="371" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA67" s="372" t="s">
         <v>212</v>
       </c>
-      <c r="AZ67" s="371" t="s">
+      <c r="BB67" s="373" t="s">
         <v>213</v>
-      </c>
-      <c r="BA67" s="372" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB67" s="373" t="s">
-        <v>215</v>
       </c>
       <c r="BC67" s="196"/>
       <c r="BD67" s="288" t="s">
@@ -11471,20 +11471,20 @@
         <v>87</v>
       </c>
       <c r="BG67" s="336" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH67" s="196"/>
       <c r="BI67" s="40"/>
     </row>
     <row r="68" spans="1:61" ht="30" customHeight="1">
-      <c r="A68" s="417"/>
-      <c r="B68" s="374">
+      <c r="A68" s="386"/>
+      <c r="B68" s="392">
         <v>3</v>
       </c>
-      <c r="C68" s="376" t="s">
+      <c r="C68" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="376" t="s">
+      <c r="D68" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E68" s="9" t="s">
@@ -11505,14 +11505,14 @@
       <c r="R68" s="106"/>
       <c r="S68" s="110"/>
       <c r="T68" s="206"/>
-      <c r="U68" s="417"/>
-      <c r="V68" s="374">
+      <c r="U68" s="386"/>
+      <c r="V68" s="392">
         <v>3</v>
       </c>
-      <c r="W68" s="376" t="s">
+      <c r="W68" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="X68" s="376" t="s">
+      <c r="X68" s="393" t="s">
         <v>57</v>
       </c>
       <c r="Y68" s="9" t="s">
@@ -11537,14 +11537,14 @@
         <v>50</v>
       </c>
       <c r="AN68" s="206"/>
-      <c r="AO68" s="417"/>
-      <c r="AP68" s="374">
+      <c r="AO68" s="386"/>
+      <c r="AP68" s="392">
         <v>3</v>
       </c>
-      <c r="AQ68" s="376" t="s">
+      <c r="AQ68" s="393" t="s">
         <v>56</v>
       </c>
-      <c r="AR68" s="376" t="s">
+      <c r="AR68" s="393" t="s">
         <v>57</v>
       </c>
       <c r="AS68" s="9" t="s">
@@ -11566,10 +11566,10 @@
         <v>49</v>
       </c>
       <c r="BA68" s="295" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BB68" s="344" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BC68" s="206"/>
       <c r="BD68" s="163" t="s">
@@ -11579,19 +11579,19 @@
         <v>49</v>
       </c>
       <c r="BF68" s="295" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BG68" s="344" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BH68" s="206"/>
       <c r="BI68" s="40"/>
     </row>
     <row r="69" spans="1:61" ht="30" customHeight="1">
-      <c r="A69" s="417"/>
-      <c r="B69" s="375"/>
-      <c r="C69" s="380"/>
-      <c r="D69" s="380"/>
+      <c r="A69" s="386"/>
+      <c r="B69" s="389"/>
+      <c r="C69" s="394"/>
+      <c r="D69" s="394"/>
       <c r="E69" s="9" t="s">
         <v>2</v>
       </c>
@@ -11618,15 +11618,15 @@
       <c r="R69" s="106"/>
       <c r="S69" s="180"/>
       <c r="T69" s="207"/>
-      <c r="U69" s="417"/>
-      <c r="V69" s="375"/>
-      <c r="W69" s="380"/>
-      <c r="X69" s="380"/>
+      <c r="U69" s="386"/>
+      <c r="V69" s="389"/>
+      <c r="W69" s="394"/>
+      <c r="X69" s="394"/>
       <c r="Y69" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Z69" s="342" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA69" s="290" t="s">
         <v>49</v>
@@ -11635,11 +11635,11 @@
         <v>113</v>
       </c>
       <c r="AC69" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD69" s="283"/>
       <c r="AE69" s="342" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF69" s="290" t="s">
         <v>49</v>
@@ -11648,7 +11648,7 @@
         <v>113</v>
       </c>
       <c r="AH69" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI69" s="207"/>
       <c r="AJ69" s="289" t="s">
@@ -11660,10 +11660,10 @@
         <v>50</v>
       </c>
       <c r="AN69" s="207"/>
-      <c r="AO69" s="417"/>
-      <c r="AP69" s="375"/>
-      <c r="AQ69" s="380"/>
-      <c r="AR69" s="380"/>
+      <c r="AO69" s="386"/>
+      <c r="AP69" s="389"/>
+      <c r="AQ69" s="394"/>
+      <c r="AR69" s="394"/>
       <c r="AS69" s="9" t="s">
         <v>2</v>
       </c>
@@ -11677,13 +11677,13 @@
       </c>
       <c r="AX69" s="207"/>
       <c r="AY69" s="352" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AZ69" s="178" t="s">
         <v>53</v>
       </c>
       <c r="BA69" s="179" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BB69" s="344" t="s">
         <v>135</v>
@@ -11697,14 +11697,14 @@
       <c r="BI69" s="40"/>
     </row>
     <row r="70" spans="1:61" ht="30" customHeight="1">
-      <c r="A70" s="417"/>
-      <c r="B70" s="374">
+      <c r="A70" s="386"/>
+      <c r="B70" s="392">
         <v>4</v>
       </c>
-      <c r="C70" s="376" t="s">
+      <c r="C70" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="D70" s="376" t="s">
+      <c r="D70" s="393" t="s">
         <v>59</v>
       </c>
       <c r="E70" s="9" t="s">
@@ -11725,14 +11725,14 @@
       <c r="R70" s="106"/>
       <c r="S70" s="110"/>
       <c r="T70" s="206"/>
-      <c r="U70" s="417"/>
-      <c r="V70" s="374">
+      <c r="U70" s="386"/>
+      <c r="V70" s="392">
         <v>4</v>
       </c>
-      <c r="W70" s="376" t="s">
+      <c r="W70" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="X70" s="376" t="s">
+      <c r="X70" s="393" t="s">
         <v>59</v>
       </c>
       <c r="Y70" s="9" t="s">
@@ -11757,14 +11757,14 @@
         <v>50</v>
       </c>
       <c r="AN70" s="206"/>
-      <c r="AO70" s="417"/>
-      <c r="AP70" s="374">
+      <c r="AO70" s="386"/>
+      <c r="AP70" s="392">
         <v>4</v>
       </c>
-      <c r="AQ70" s="376" t="s">
+      <c r="AQ70" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="AR70" s="376" t="s">
+      <c r="AR70" s="393" t="s">
         <v>59</v>
       </c>
       <c r="AS70" s="9" t="s">
@@ -11786,10 +11786,10 @@
         <v>49</v>
       </c>
       <c r="BA70" s="295" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BB70" s="344" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BC70" s="206"/>
       <c r="BD70" s="163" t="s">
@@ -11799,19 +11799,19 @@
         <v>49</v>
       </c>
       <c r="BF70" s="295" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BG70" s="344" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BH70" s="206"/>
       <c r="BI70" s="40"/>
     </row>
     <row r="71" spans="1:61" ht="30" customHeight="1">
-      <c r="A71" s="417"/>
-      <c r="B71" s="375"/>
-      <c r="C71" s="377"/>
-      <c r="D71" s="377"/>
+      <c r="A71" s="386"/>
+      <c r="B71" s="389"/>
+      <c r="C71" s="391"/>
+      <c r="D71" s="391"/>
       <c r="E71" s="9" t="s">
         <v>2</v>
       </c>
@@ -11830,15 +11830,15 @@
       <c r="R71" s="106"/>
       <c r="S71" s="180"/>
       <c r="T71" s="198"/>
-      <c r="U71" s="417"/>
-      <c r="V71" s="375"/>
-      <c r="W71" s="377"/>
-      <c r="X71" s="377"/>
+      <c r="U71" s="386"/>
+      <c r="V71" s="389"/>
+      <c r="W71" s="391"/>
+      <c r="X71" s="391"/>
       <c r="Y71" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Z71" s="342" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA71" s="290" t="s">
         <v>49</v>
@@ -11847,11 +11847,11 @@
         <v>113</v>
       </c>
       <c r="AC71" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD71" s="207"/>
       <c r="AE71" s="342" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF71" s="290" t="s">
         <v>49</v>
@@ -11860,7 +11860,7 @@
         <v>113</v>
       </c>
       <c r="AH71" s="344" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI71" s="198"/>
       <c r="AJ71" s="289" t="s">
@@ -11872,10 +11872,10 @@
         <v>50</v>
       </c>
       <c r="AN71" s="198"/>
-      <c r="AO71" s="417"/>
-      <c r="AP71" s="375"/>
-      <c r="AQ71" s="377"/>
-      <c r="AR71" s="377"/>
+      <c r="AO71" s="386"/>
+      <c r="AP71" s="389"/>
+      <c r="AQ71" s="391"/>
+      <c r="AR71" s="391"/>
       <c r="AS71" s="9" t="s">
         <v>2</v>
       </c>
@@ -11889,13 +11889,13 @@
       </c>
       <c r="AX71" s="198"/>
       <c r="AY71" s="352" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AZ71" s="178" t="s">
         <v>53</v>
       </c>
       <c r="BA71" s="179" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BB71" s="344" t="s">
         <v>135</v>
@@ -11909,14 +11909,14 @@
       <c r="BI71" s="40"/>
     </row>
     <row r="72" spans="1:61" ht="27.95" customHeight="1">
-      <c r="A72" s="417"/>
-      <c r="B72" s="374">
+      <c r="A72" s="386"/>
+      <c r="B72" s="392">
         <v>5</v>
       </c>
-      <c r="C72" s="376" t="s">
+      <c r="C72" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="376" t="s">
+      <c r="D72" s="393" t="s">
         <v>60</v>
       </c>
       <c r="E72" s="9" t="s">
@@ -11937,14 +11937,14 @@
       <c r="R72" s="106"/>
       <c r="S72" s="110"/>
       <c r="T72" s="112"/>
-      <c r="U72" s="417"/>
-      <c r="V72" s="374">
+      <c r="U72" s="386"/>
+      <c r="V72" s="392">
         <v>5</v>
       </c>
-      <c r="W72" s="376" t="s">
+      <c r="W72" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="X72" s="376" t="s">
+      <c r="X72" s="393" t="s">
         <v>60</v>
       </c>
       <c r="Y72" s="9" t="s">
@@ -11969,14 +11969,14 @@
         <v>50</v>
       </c>
       <c r="AN72" s="112"/>
-      <c r="AO72" s="417"/>
-      <c r="AP72" s="374">
+      <c r="AO72" s="386"/>
+      <c r="AP72" s="392">
         <v>5</v>
       </c>
-      <c r="AQ72" s="376" t="s">
+      <c r="AQ72" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="AR72" s="376" t="s">
+      <c r="AR72" s="393" t="s">
         <v>60</v>
       </c>
       <c r="AS72" s="9" t="s">
@@ -12004,10 +12004,10 @@
       <c r="BI72" s="40"/>
     </row>
     <row r="73" spans="1:61" ht="27.95" customHeight="1">
-      <c r="A73" s="417"/>
-      <c r="B73" s="375"/>
-      <c r="C73" s="377"/>
-      <c r="D73" s="377"/>
+      <c r="A73" s="386"/>
+      <c r="B73" s="389"/>
+      <c r="C73" s="391"/>
+      <c r="D73" s="391"/>
       <c r="E73" s="9" t="s">
         <v>2</v>
       </c>
@@ -12026,10 +12026,10 @@
       <c r="R73" s="106"/>
       <c r="S73" s="180"/>
       <c r="T73" s="197"/>
-      <c r="U73" s="417"/>
-      <c r="V73" s="375"/>
-      <c r="W73" s="377"/>
-      <c r="X73" s="377"/>
+      <c r="U73" s="386"/>
+      <c r="V73" s="389"/>
+      <c r="W73" s="391"/>
+      <c r="X73" s="391"/>
       <c r="Y73" s="9" t="s">
         <v>2</v>
       </c>
@@ -12048,10 +12048,10 @@
       <c r="AL73" s="273"/>
       <c r="AM73" s="284"/>
       <c r="AN73" s="197"/>
-      <c r="AO73" s="417"/>
-      <c r="AP73" s="375"/>
-      <c r="AQ73" s="377"/>
-      <c r="AR73" s="377"/>
+      <c r="AO73" s="386"/>
+      <c r="AP73" s="389"/>
+      <c r="AQ73" s="391"/>
+      <c r="AR73" s="391"/>
       <c r="AS73" s="9" t="s">
         <v>2</v>
       </c>
@@ -12077,14 +12077,14 @@
       <c r="BI73" s="40"/>
     </row>
     <row r="74" spans="1:61" ht="30" customHeight="1">
-      <c r="A74" s="417"/>
-      <c r="B74" s="378">
+      <c r="A74" s="386"/>
+      <c r="B74" s="395">
         <v>6</v>
       </c>
-      <c r="C74" s="380" t="s">
+      <c r="C74" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="380" t="s">
+      <c r="D74" s="394" t="s">
         <v>61</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -12105,14 +12105,14 @@
       <c r="R74" s="106"/>
       <c r="S74" s="110"/>
       <c r="T74" s="208"/>
-      <c r="U74" s="417"/>
-      <c r="V74" s="378">
+      <c r="U74" s="386"/>
+      <c r="V74" s="395">
         <v>6</v>
       </c>
-      <c r="W74" s="380" t="s">
+      <c r="W74" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="X74" s="380" t="s">
+      <c r="X74" s="394" t="s">
         <v>61</v>
       </c>
       <c r="Y74" s="9" t="s">
@@ -12133,14 +12133,14 @@
       <c r="AL74" s="273"/>
       <c r="AM74" s="284"/>
       <c r="AN74" s="208"/>
-      <c r="AO74" s="417"/>
-      <c r="AP74" s="378">
+      <c r="AO74" s="386"/>
+      <c r="AP74" s="395">
         <v>6</v>
       </c>
-      <c r="AQ74" s="380" t="s">
+      <c r="AQ74" s="394" t="s">
         <v>41</v>
       </c>
-      <c r="AR74" s="380" t="s">
+      <c r="AR74" s="394" t="s">
         <v>61</v>
       </c>
       <c r="AS74" s="9" t="s">
@@ -12168,10 +12168,10 @@
       <c r="BI74" s="40"/>
     </row>
     <row r="75" spans="1:61" ht="30" customHeight="1" thickBot="1">
-      <c r="A75" s="418"/>
-      <c r="B75" s="379"/>
-      <c r="C75" s="381"/>
-      <c r="D75" s="381"/>
+      <c r="A75" s="387"/>
+      <c r="B75" s="396"/>
+      <c r="C75" s="397"/>
+      <c r="D75" s="397"/>
       <c r="E75" s="4" t="s">
         <v>2</v>
       </c>
@@ -12190,10 +12190,10 @@
       <c r="R75" s="70"/>
       <c r="S75" s="71"/>
       <c r="T75" s="203"/>
-      <c r="U75" s="418"/>
-      <c r="V75" s="379"/>
-      <c r="W75" s="381"/>
-      <c r="X75" s="381"/>
+      <c r="U75" s="387"/>
+      <c r="V75" s="396"/>
+      <c r="W75" s="397"/>
+      <c r="X75" s="397"/>
       <c r="Y75" s="4" t="s">
         <v>2</v>
       </c>
@@ -12212,10 +12212,10 @@
       <c r="AL75" s="70"/>
       <c r="AM75" s="213"/>
       <c r="AN75" s="267"/>
-      <c r="AO75" s="418"/>
-      <c r="AP75" s="379"/>
-      <c r="AQ75" s="381"/>
-      <c r="AR75" s="381"/>
+      <c r="AO75" s="387"/>
+      <c r="AP75" s="396"/>
+      <c r="AQ75" s="397"/>
+      <c r="AR75" s="397"/>
       <c r="AS75" s="4" t="s">
         <v>2</v>
       </c>
@@ -12257,17 +12257,17 @@
       <c r="J76" s="21"/>
       <c r="K76" s="29"/>
       <c r="L76" s="30"/>
-      <c r="M76" s="422" t="s">
+      <c r="M76" s="374" t="s">
         <v>42</v>
       </c>
-      <c r="N76" s="422"/>
-      <c r="O76" s="422"/>
-      <c r="P76" s="422"/>
-      <c r="Q76" s="423" t="s">
+      <c r="N76" s="374"/>
+      <c r="O76" s="374"/>
+      <c r="P76" s="374"/>
+      <c r="Q76" s="383" t="s">
         <v>43</v>
       </c>
-      <c r="R76" s="423"/>
-      <c r="S76" s="424"/>
+      <c r="R76" s="383"/>
+      <c r="S76" s="384"/>
       <c r="T76" s="188"/>
       <c r="U76" s="25"/>
       <c r="V76" s="25"/>
@@ -12285,17 +12285,17 @@
       <c r="AD76" s="21"/>
       <c r="AE76" s="29"/>
       <c r="AF76" s="30"/>
-      <c r="AG76" s="422" t="s">
+      <c r="AG76" s="374" t="s">
         <v>42</v>
       </c>
-      <c r="AH76" s="422"/>
-      <c r="AI76" s="422"/>
-      <c r="AJ76" s="422"/>
-      <c r="AK76" s="425" t="s">
+      <c r="AH76" s="374"/>
+      <c r="AI76" s="374"/>
+      <c r="AJ76" s="374"/>
+      <c r="AK76" s="375" t="s">
         <v>43</v>
       </c>
-      <c r="AL76" s="425"/>
-      <c r="AM76" s="426"/>
+      <c r="AL76" s="375"/>
+      <c r="AM76" s="376"/>
       <c r="AN76" s="188"/>
       <c r="AO76" s="25"/>
       <c r="AP76" s="25"/>
@@ -12313,17 +12313,17 @@
       <c r="AX76" s="21"/>
       <c r="AY76" s="29"/>
       <c r="AZ76" s="30"/>
-      <c r="BA76" s="422" t="s">
+      <c r="BA76" s="374" t="s">
         <v>42</v>
       </c>
-      <c r="BB76" s="422"/>
-      <c r="BC76" s="422"/>
-      <c r="BD76" s="422"/>
-      <c r="BE76" s="423" t="s">
+      <c r="BB76" s="374"/>
+      <c r="BC76" s="374"/>
+      <c r="BD76" s="374"/>
+      <c r="BE76" s="383" t="s">
         <v>43</v>
       </c>
-      <c r="BF76" s="423"/>
-      <c r="BG76" s="424"/>
+      <c r="BF76" s="383"/>
+      <c r="BG76" s="384"/>
       <c r="BH76" s="186"/>
     </row>
     <row r="77" spans="1:61">
@@ -12391,30 +12391,30 @@
     <row r="78" spans="1:61" ht="45.75">
       <c r="A78" s="32"/>
       <c r="B78" s="33"/>
-      <c r="C78" s="427" t="s">
+      <c r="C78" s="377" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="428"/>
-      <c r="E78" s="428"/>
-      <c r="F78" s="428"/>
-      <c r="G78" s="428"/>
-      <c r="H78" s="428"/>
-      <c r="I78" s="428"/>
-      <c r="J78" s="428"/>
-      <c r="K78" s="429"/>
+      <c r="D78" s="378"/>
+      <c r="E78" s="378"/>
+      <c r="F78" s="378"/>
+      <c r="G78" s="378"/>
+      <c r="H78" s="378"/>
+      <c r="I78" s="378"/>
+      <c r="J78" s="378"/>
+      <c r="K78" s="379"/>
       <c r="U78" s="32"/>
       <c r="V78" s="33"/>
-      <c r="W78" s="427" t="s">
+      <c r="W78" s="377" t="s">
         <v>31</v>
       </c>
-      <c r="X78" s="428"/>
-      <c r="Y78" s="428"/>
-      <c r="Z78" s="428"/>
-      <c r="AA78" s="428"/>
-      <c r="AB78" s="428"/>
-      <c r="AC78" s="428"/>
-      <c r="AD78" s="428"/>
-      <c r="AE78" s="429"/>
+      <c r="X78" s="378"/>
+      <c r="Y78" s="378"/>
+      <c r="Z78" s="378"/>
+      <c r="AA78" s="378"/>
+      <c r="AB78" s="378"/>
+      <c r="AC78" s="378"/>
+      <c r="AD78" s="378"/>
+      <c r="AE78" s="379"/>
       <c r="AG78" s="6"/>
       <c r="AH78" s="23"/>
       <c r="AI78" s="23"/>
@@ -12423,17 +12423,17 @@
       <c r="AN78" s="23"/>
       <c r="AO78" s="32"/>
       <c r="AP78" s="33"/>
-      <c r="AQ78" s="427" t="s">
+      <c r="AQ78" s="377" t="s">
         <v>31</v>
       </c>
-      <c r="AR78" s="428"/>
-      <c r="AS78" s="428"/>
-      <c r="AT78" s="428"/>
-      <c r="AU78" s="428"/>
-      <c r="AV78" s="428"/>
-      <c r="AW78" s="428"/>
-      <c r="AX78" s="428"/>
-      <c r="AY78" s="429"/>
+      <c r="AR78" s="378"/>
+      <c r="AS78" s="378"/>
+      <c r="AT78" s="378"/>
+      <c r="AU78" s="378"/>
+      <c r="AV78" s="378"/>
+      <c r="AW78" s="378"/>
+      <c r="AX78" s="378"/>
+      <c r="AY78" s="379"/>
       <c r="BA78" s="6"/>
       <c r="BB78" s="23"/>
       <c r="BC78" s="23"/>
@@ -12603,26 +12603,26 @@
     <row r="82" spans="1:60" ht="33">
       <c r="A82" s="32"/>
       <c r="B82" s="33"/>
-      <c r="C82" s="430"/>
-      <c r="D82" s="431"/>
-      <c r="E82" s="431"/>
-      <c r="F82" s="431"/>
-      <c r="G82" s="431"/>
-      <c r="H82" s="431"/>
-      <c r="I82" s="431"/>
-      <c r="J82" s="431"/>
-      <c r="K82" s="432"/>
+      <c r="C82" s="380"/>
+      <c r="D82" s="381"/>
+      <c r="E82" s="381"/>
+      <c r="F82" s="381"/>
+      <c r="G82" s="381"/>
+      <c r="H82" s="381"/>
+      <c r="I82" s="381"/>
+      <c r="J82" s="381"/>
+      <c r="K82" s="382"/>
       <c r="U82" s="32"/>
       <c r="V82" s="33"/>
-      <c r="W82" s="430"/>
-      <c r="X82" s="431"/>
-      <c r="Y82" s="431"/>
-      <c r="Z82" s="431"/>
-      <c r="AA82" s="431"/>
-      <c r="AB82" s="431"/>
-      <c r="AC82" s="431"/>
-      <c r="AD82" s="431"/>
-      <c r="AE82" s="432"/>
+      <c r="W82" s="380"/>
+      <c r="X82" s="381"/>
+      <c r="Y82" s="381"/>
+      <c r="Z82" s="381"/>
+      <c r="AA82" s="381"/>
+      <c r="AB82" s="381"/>
+      <c r="AC82" s="381"/>
+      <c r="AD82" s="381"/>
+      <c r="AE82" s="382"/>
       <c r="AG82" s="6"/>
       <c r="AH82" s="23"/>
       <c r="AI82" s="23"/>
@@ -12631,15 +12631,15 @@
       <c r="AN82" s="23"/>
       <c r="AO82" s="32"/>
       <c r="AP82" s="33"/>
-      <c r="AQ82" s="430"/>
-      <c r="AR82" s="431"/>
-      <c r="AS82" s="431"/>
-      <c r="AT82" s="431"/>
-      <c r="AU82" s="431"/>
-      <c r="AV82" s="431"/>
-      <c r="AW82" s="431"/>
-      <c r="AX82" s="431"/>
-      <c r="AY82" s="432"/>
+      <c r="AQ82" s="380"/>
+      <c r="AR82" s="381"/>
+      <c r="AS82" s="381"/>
+      <c r="AT82" s="381"/>
+      <c r="AU82" s="381"/>
+      <c r="AV82" s="381"/>
+      <c r="AW82" s="381"/>
+      <c r="AX82" s="381"/>
+      <c r="AY82" s="382"/>
       <c r="BA82" s="6"/>
       <c r="BB82" s="23"/>
       <c r="BC82" s="23"/>
@@ -13192,16 +13192,347 @@
     </row>
   </sheetData>
   <mergeCells count="375">
-    <mergeCell ref="AG76:AJ76"/>
-    <mergeCell ref="AK76:AM76"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="W78:AE78"/>
-    <mergeCell ref="W82:AE82"/>
-    <mergeCell ref="AQ78:AY78"/>
-    <mergeCell ref="AQ82:AY82"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="AP72:AP73"/>
+    <mergeCell ref="AQ72:AQ73"/>
+    <mergeCell ref="AR72:AR73"/>
+    <mergeCell ref="AP74:AP75"/>
+    <mergeCell ref="AQ74:AQ75"/>
+    <mergeCell ref="AR74:AR75"/>
+    <mergeCell ref="AR64:AR65"/>
+    <mergeCell ref="AP66:AP67"/>
+    <mergeCell ref="AQ66:AQ67"/>
+    <mergeCell ref="AR66:AR67"/>
+    <mergeCell ref="AP68:AP69"/>
+    <mergeCell ref="AQ68:AQ69"/>
+    <mergeCell ref="AR68:AR69"/>
+    <mergeCell ref="AP70:AP71"/>
+    <mergeCell ref="AQ70:AQ71"/>
+    <mergeCell ref="AR70:AR71"/>
+    <mergeCell ref="AO52:AO63"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="AQ52:AQ53"/>
+    <mergeCell ref="AR52:AR53"/>
+    <mergeCell ref="AP54:AP55"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="AR54:AR55"/>
+    <mergeCell ref="AP56:AP57"/>
+    <mergeCell ref="AQ56:AQ57"/>
+    <mergeCell ref="AR56:AR57"/>
+    <mergeCell ref="AP58:AP59"/>
+    <mergeCell ref="AQ58:AQ59"/>
+    <mergeCell ref="AR58:AR59"/>
+    <mergeCell ref="AP60:AP61"/>
+    <mergeCell ref="AQ60:AQ61"/>
+    <mergeCell ref="AR60:AR61"/>
+    <mergeCell ref="AP62:AP63"/>
+    <mergeCell ref="AQ62:AQ63"/>
+    <mergeCell ref="AR62:AR63"/>
+    <mergeCell ref="AO40:AO51"/>
+    <mergeCell ref="AP40:AP41"/>
+    <mergeCell ref="AQ40:AQ41"/>
+    <mergeCell ref="AR40:AR41"/>
+    <mergeCell ref="AP42:AP43"/>
+    <mergeCell ref="AQ42:AQ43"/>
+    <mergeCell ref="AR42:AR43"/>
+    <mergeCell ref="AP44:AP45"/>
+    <mergeCell ref="AQ44:AQ45"/>
+    <mergeCell ref="AR44:AR45"/>
+    <mergeCell ref="AP46:AP47"/>
+    <mergeCell ref="AQ46:AQ47"/>
+    <mergeCell ref="AR46:AR47"/>
+    <mergeCell ref="AP48:AP49"/>
+    <mergeCell ref="AQ48:AQ49"/>
+    <mergeCell ref="AR48:AR49"/>
+    <mergeCell ref="AP50:AP51"/>
+    <mergeCell ref="AQ50:AQ51"/>
+    <mergeCell ref="AR50:AR51"/>
+    <mergeCell ref="AO28:AO39"/>
+    <mergeCell ref="AP28:AP29"/>
+    <mergeCell ref="AQ28:AQ29"/>
+    <mergeCell ref="AR28:AR29"/>
+    <mergeCell ref="AP30:AP31"/>
+    <mergeCell ref="AQ30:AQ31"/>
+    <mergeCell ref="AR30:AR31"/>
+    <mergeCell ref="AP32:AP33"/>
+    <mergeCell ref="AQ32:AQ33"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AP34:AP35"/>
+    <mergeCell ref="AQ34:AQ35"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AP36:AP37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AR36:AR37"/>
+    <mergeCell ref="AP38:AP39"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AR38:AR39"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AO16:AO27"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="AQ20:AQ21"/>
+    <mergeCell ref="AR20:AR21"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="AQ22:AQ23"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AR24:AR25"/>
+    <mergeCell ref="AP26:AP27"/>
+    <mergeCell ref="AQ26:AQ27"/>
+    <mergeCell ref="AR26:AR27"/>
+    <mergeCell ref="AP1:BB1"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AO4:AO15"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="V1:AH1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="U4:U15"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="U16:U27"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="U28:U39"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="U40:U51"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="X42:X43"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="X46:X47"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="W48:W49"/>
+    <mergeCell ref="X48:X49"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="X50:X51"/>
+    <mergeCell ref="U52:U63"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="W54:W55"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="V56:V57"/>
+    <mergeCell ref="W56:W57"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="X58:X59"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="V62:V63"/>
+    <mergeCell ref="W62:W63"/>
+    <mergeCell ref="X62:X63"/>
     <mergeCell ref="BA76:BD76"/>
     <mergeCell ref="BE76:BG76"/>
     <mergeCell ref="U64:U75"/>
@@ -13226,347 +13557,16 @@
     <mergeCell ref="AO64:AO75"/>
     <mergeCell ref="AP64:AP65"/>
     <mergeCell ref="AQ64:AQ65"/>
-    <mergeCell ref="U52:U63"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="V54:V55"/>
-    <mergeCell ref="W54:W55"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="V56:V57"/>
-    <mergeCell ref="W56:W57"/>
-    <mergeCell ref="X56:X57"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="X58:X59"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="V62:V63"/>
-    <mergeCell ref="W62:W63"/>
-    <mergeCell ref="X62:X63"/>
-    <mergeCell ref="U40:U51"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="W42:W43"/>
-    <mergeCell ref="X42:X43"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="X46:X47"/>
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="W48:W49"/>
-    <mergeCell ref="X48:X49"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="X50:X51"/>
-    <mergeCell ref="U28:U39"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="U16:U27"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="V1:AH1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="U4:U15"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="AP1:BB1"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="AO4:AO15"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AO16:AO27"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AP20:AP21"/>
-    <mergeCell ref="AQ20:AQ21"/>
-    <mergeCell ref="AR20:AR21"/>
-    <mergeCell ref="AP22:AP23"/>
-    <mergeCell ref="AQ22:AQ23"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AR24:AR25"/>
-    <mergeCell ref="AP26:AP27"/>
-    <mergeCell ref="AQ26:AQ27"/>
-    <mergeCell ref="AR26:AR27"/>
-    <mergeCell ref="AO28:AO39"/>
-    <mergeCell ref="AP28:AP29"/>
-    <mergeCell ref="AQ28:AQ29"/>
-    <mergeCell ref="AR28:AR29"/>
-    <mergeCell ref="AP30:AP31"/>
-    <mergeCell ref="AQ30:AQ31"/>
-    <mergeCell ref="AR30:AR31"/>
-    <mergeCell ref="AP32:AP33"/>
-    <mergeCell ref="AQ32:AQ33"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AP34:AP35"/>
-    <mergeCell ref="AQ34:AQ35"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AP36:AP37"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AR36:AR37"/>
-    <mergeCell ref="AP38:AP39"/>
-    <mergeCell ref="AQ38:AQ39"/>
-    <mergeCell ref="AR38:AR39"/>
-    <mergeCell ref="AO40:AO51"/>
-    <mergeCell ref="AP40:AP41"/>
-    <mergeCell ref="AQ40:AQ41"/>
-    <mergeCell ref="AR40:AR41"/>
-    <mergeCell ref="AP42:AP43"/>
-    <mergeCell ref="AQ42:AQ43"/>
-    <mergeCell ref="AR42:AR43"/>
-    <mergeCell ref="AP44:AP45"/>
-    <mergeCell ref="AQ44:AQ45"/>
-    <mergeCell ref="AR44:AR45"/>
-    <mergeCell ref="AP46:AP47"/>
-    <mergeCell ref="AQ46:AQ47"/>
-    <mergeCell ref="AR46:AR47"/>
-    <mergeCell ref="AP48:AP49"/>
-    <mergeCell ref="AQ48:AQ49"/>
-    <mergeCell ref="AR48:AR49"/>
-    <mergeCell ref="AP50:AP51"/>
-    <mergeCell ref="AQ50:AQ51"/>
-    <mergeCell ref="AR50:AR51"/>
-    <mergeCell ref="AO52:AO63"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="AQ52:AQ53"/>
-    <mergeCell ref="AR52:AR53"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="AR54:AR55"/>
-    <mergeCell ref="AP56:AP57"/>
-    <mergeCell ref="AQ56:AQ57"/>
-    <mergeCell ref="AR56:AR57"/>
-    <mergeCell ref="AP58:AP59"/>
-    <mergeCell ref="AQ58:AQ59"/>
-    <mergeCell ref="AR58:AR59"/>
-    <mergeCell ref="AP60:AP61"/>
-    <mergeCell ref="AQ60:AQ61"/>
-    <mergeCell ref="AR60:AR61"/>
-    <mergeCell ref="AP62:AP63"/>
-    <mergeCell ref="AQ62:AQ63"/>
-    <mergeCell ref="AR62:AR63"/>
-    <mergeCell ref="AP72:AP73"/>
-    <mergeCell ref="AQ72:AQ73"/>
-    <mergeCell ref="AR72:AR73"/>
-    <mergeCell ref="AP74:AP75"/>
-    <mergeCell ref="AQ74:AQ75"/>
-    <mergeCell ref="AR74:AR75"/>
-    <mergeCell ref="AR64:AR65"/>
-    <mergeCell ref="AP66:AP67"/>
-    <mergeCell ref="AQ66:AQ67"/>
-    <mergeCell ref="AR66:AR67"/>
-    <mergeCell ref="AP68:AP69"/>
-    <mergeCell ref="AQ68:AQ69"/>
-    <mergeCell ref="AR68:AR69"/>
-    <mergeCell ref="AP70:AP71"/>
-    <mergeCell ref="AQ70:AQ71"/>
-    <mergeCell ref="AR70:AR71"/>
+    <mergeCell ref="AG76:AJ76"/>
+    <mergeCell ref="AK76:AM76"/>
+    <mergeCell ref="C78:K78"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="W78:AE78"/>
+    <mergeCell ref="W82:AE82"/>
+    <mergeCell ref="AQ78:AY78"/>
+    <mergeCell ref="AQ82:AY82"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="Q76:S76"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
